--- a/Portfolio Models/Tesla.xlsx
+++ b/Portfolio Models/Tesla.xlsx
@@ -5,16 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Portfolio Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C2774-591A-684D-BBF1-69B6E91597A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C27AA2-BB87-A742-9F19-AA4BD73C6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29200" windowHeight="28280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$3:$Q$3</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$B$3:$Q$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="158">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -459,18 +466,67 @@
   </si>
   <si>
     <t>Share Dilution (5yr)</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Proj. Free Cash Flow</t>
+  </si>
+  <si>
+    <t>FCF Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>Perpetual Growth Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate (WACC)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Valuation</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Cash + Securities</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Upside/Downside</t>
+  </si>
+  <si>
+    <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Vehicle Deliveries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -575,8 +631,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,8 +668,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -735,11 +815,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -818,6 +921,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,10 +934,64 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -933,7 +1091,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
+              <c:f>'Sheet 1'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,7 +1135,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$Q$3</c:f>
+              <c:f>'Sheet 1'!$B$4:$Q$4</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1043,7 +1201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,7 +1245,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$Q$19</c:f>
+              <c:f>'Sheet 1'!$B$20:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1153,7 +1311,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1355,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$Q$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$Q$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1961,13 +2119,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2293,13 +2451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z106"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2308,10 +2466,8 @@
     <col min="2" max="17" width="15" customWidth="1"/>
     <col min="18" max="20" width="18.83203125" customWidth="1"/>
     <col min="21" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="20.5" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" customWidth="1"/>
-    <col min="25" max="25" width="18.1640625" customWidth="1"/>
-    <col min="26" max="26" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="19.83203125" customWidth="1"/>
+    <col min="24" max="26" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -2450,1857 +2606,1850 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="40" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="20">
+        <v>2600</v>
+      </c>
+      <c r="H3" s="20">
+        <v>22400</v>
+      </c>
+      <c r="I3" s="20">
+        <v>32000</v>
+      </c>
+      <c r="J3" s="20">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="20">
+        <v>76200</v>
+      </c>
+      <c r="L3" s="20">
+        <v>103100</v>
+      </c>
+      <c r="M3" s="20">
+        <v>245200</v>
+      </c>
+      <c r="N3" s="20">
+        <v>367500</v>
+      </c>
+      <c r="O3" s="20">
+        <v>499550</v>
+      </c>
+      <c r="P3" s="20">
+        <v>936172</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>1313851</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>73000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>14742000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>111943000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>116744000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>204242000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="1">
         <v>413256000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>2013496000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>3198356000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>4046025000</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K4" s="1">
         <v>7000132000</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L4" s="1">
         <v>11758751000</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M4" s="1">
         <v>21461268000</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N4" s="1">
         <v>24578000000</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O4" s="1">
         <v>31536000000</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P4" s="1">
         <v>53823000000</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q4" s="1">
         <v>81462000000</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R4" s="17">
         <v>102000000000</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S4" s="17">
         <v>132300000000</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T4" s="17">
         <v>152800000000</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U4" s="17">
         <v>164500000000</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V4" s="17">
         <v>210100000000</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="W4" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="X4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z4" s="41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
-        <f>(C3/B3)-1</f>
+      <c r="B5" s="1"/>
+      <c r="C5" s="15">
+        <f>(C4/B4)-1</f>
         <v>200.94520547945206</v>
       </c>
-      <c r="D4" s="15">
-        <f>(D3/C3)-1</f>
+      <c r="D5" s="15">
+        <f>(D4/C4)-1</f>
         <v>6.5934744268077603</v>
       </c>
-      <c r="E4" s="15">
-        <f>(E3/D3)-1</f>
+      <c r="E5" s="15">
+        <f>(E4/D4)-1</f>
         <v>4.2887898305387528E-2</v>
       </c>
-      <c r="F4" s="15">
-        <f t="shared" ref="F4:Q4" si="0">(F3/E3)-1</f>
+      <c r="F5" s="15">
+        <f t="shared" ref="F5:Q5" si="0">(F4/E4)-1</f>
         <v>0.74948605495785658</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>1.0233644402228728</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>3.8722728768608317</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>0.58845907814070642</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>0.26503272306147285</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>0.73012574069611524</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L5" s="15">
         <f t="shared" si="0"/>
         <v>0.67978989539054413</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M5" s="15">
         <f t="shared" si="0"/>
         <v>0.82513159773516764</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N5" s="15">
         <f t="shared" si="0"/>
         <v>0.14522590184326489</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O5" s="15">
         <f t="shared" si="0"/>
         <v>0.28309870615998056</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P5" s="15">
         <f t="shared" si="0"/>
         <v>0.70671613394216126</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q5" s="15">
         <f t="shared" si="0"/>
         <v>0.51351652639206291</v>
       </c>
-      <c r="R4" s="18">
-        <f t="shared" ref="R4" si="1">(R3/Q3)-1</f>
+      <c r="R5" s="18">
+        <f t="shared" ref="R5" si="1">(R4/Q4)-1</f>
         <v>0.25211755174191652</v>
       </c>
-      <c r="S4" s="18">
-        <f t="shared" ref="S4" si="2">(S3/R3)-1</f>
+      <c r="S5" s="18">
+        <f t="shared" ref="S5" si="2">(S4/R4)-1</f>
         <v>0.29705882352941182</v>
       </c>
-      <c r="T4" s="18">
-        <f t="shared" ref="T4" si="3">(T3/S3)-1</f>
+      <c r="T5" s="18">
+        <f t="shared" ref="T5" si="3">(T4/S4)-1</f>
         <v>0.15495086923658352</v>
       </c>
-      <c r="U4" s="18">
-        <f>(U3/T3)-1</f>
+      <c r="U5" s="18">
+        <f>(U4/T4)-1</f>
         <v>7.6570680628272214E-2</v>
       </c>
-      <c r="V4" s="18">
-        <f t="shared" ref="V4" si="4">(V3/U3)-1</f>
+      <c r="V5" s="18">
+        <f t="shared" ref="V5" si="4">(V4/U4)-1</f>
         <v>0.27720364741641346</v>
       </c>
-      <c r="W4" s="33">
-        <f>(Q4+P4+O4)/3</f>
+      <c r="W5" s="33">
+        <f>(Q5+P5+O5)/3</f>
         <v>0.50111045549806821</v>
       </c>
-      <c r="X4" s="34">
-        <f>(Q20+P20+O20)/3</f>
+      <c r="X5" s="34">
+        <f>(Q21+P21+O21)/3</f>
         <v>1.0471441765542473</v>
       </c>
-      <c r="Y4" s="34">
-        <f>(Q29+P29+O29)/3</f>
+      <c r="Y5" s="34">
+        <f>(Q30+P30+O30)/3</f>
         <v>2.1577121717940262</v>
       </c>
-      <c r="Z4" s="35">
-        <f>(Q105+P105+O105)/3</f>
+      <c r="Z5" s="35">
+        <f>(Q106+P106+O106)/3</f>
         <v>1.083547133260981</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>9000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>15883000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>102408000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>86013000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>142647000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>383189000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>1557234000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>2316685000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>3122522000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="1">
         <v>5400875000</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>9536264000</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="1">
         <v>17419247000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N6" s="1">
         <v>20509000000</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="1">
         <v>24906000000</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P6" s="1">
         <v>40217000000</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q6" s="1">
         <v>60609000000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:26" ht="40" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B7" s="10">
         <v>64000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="10">
         <v>-1141000</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>9535000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>30731000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>61595000</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>30067000</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>456262000</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>881671000</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="10">
         <v>923503000</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="10">
         <v>1599257000</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L7" s="10">
         <v>2222487000</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M7" s="10">
         <v>4042021000</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N7" s="10">
         <v>4069000000</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O7" s="10">
         <v>6630000000</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P7" s="10">
         <v>13606000000</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q7" s="10">
         <v>20853000000</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X7" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Y7" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Z6" s="41" t="s">
+      <c r="Z7" s="41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>0.87670000000000003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>-7.7399999999999997E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>0.26319999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>0.30159999999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H8" s="2">
         <v>0.2266</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <v>0.2757</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>0.22819999999999999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>0.22850000000000001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="2">
         <v>0.189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <v>0.1883</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N8" s="2">
         <v>0.1656</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O8" s="2">
         <v>0.2102</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.25280000000000002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="W7" s="33">
-        <f>Q7</f>
+      <c r="W8" s="33">
+        <f>Q8</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="X7" s="34">
-        <f>Q21</f>
+      <c r="X8" s="34">
+        <f>Q22</f>
         <v>0.21640000000000001</v>
       </c>
-      <c r="Y7" s="34">
-        <f>Q30</f>
+      <c r="Y8" s="34">
+        <f>Q31</f>
         <v>0.15409999999999999</v>
       </c>
-      <c r="Z7" s="35">
-        <f>Q106/Q3</f>
+      <c r="Z8" s="35">
+        <f>Q107/Q4</f>
         <v>9.281628243843755E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>62753000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>53714000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>19282000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>92996000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>208981000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>273978000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>231976000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>464700000</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="1">
         <v>717900000</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K9" s="1">
         <v>834408000</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L9" s="1">
         <v>1378073000</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="1">
         <v>1460370000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="1">
         <v>1343000000</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O9" s="1">
         <v>1491000000</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P9" s="1">
         <v>2593000000</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="1">
         <v>3075000000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="15">
-        <f>B8/B3</f>
+      <c r="B10" s="15">
+        <f>B9/B4</f>
         <v>859.63013698630141</v>
       </c>
-      <c r="C9" s="15">
-        <f t="shared" ref="C9:Q9" si="5">C8/C3</f>
+      <c r="C10" s="15">
+        <f t="shared" ref="C10:Q10" si="5">C9/C4</f>
         <v>3.643603310269977</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="15">
         <f t="shared" si="5"/>
         <v>0.17224837640584942</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <f t="shared" si="5"/>
         <v>0.79658055231960534</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <f t="shared" si="5"/>
         <v>1.0232028671869644</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <f t="shared" si="5"/>
         <v>0.66297404030431495</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <f t="shared" si="5"/>
         <v>0.11521055914687688</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <f t="shared" si="5"/>
         <v>0.14529339448141482</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <f t="shared" si="5"/>
         <v>0.17743340686229075</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <f t="shared" si="5"/>
         <v>0.11919889510654942</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <f t="shared" si="5"/>
         <v>0.11719552527304983</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M10" s="15">
         <f t="shared" si="5"/>
         <v>6.8046771514152851E-2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <f t="shared" si="5"/>
         <v>5.4642363088941333E-2</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O10" s="15">
         <f t="shared" si="5"/>
         <v>4.7279299847792999E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P10" s="15">
         <f t="shared" si="5"/>
         <v>4.817643015067908E-2</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q10" s="15">
         <f t="shared" si="5"/>
         <v>3.7747661486337188E-2</v>
       </c>
-      <c r="W9" s="39" t="s">
+      <c r="W10" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="X10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="Y9" s="40" t="s">
+      <c r="Y10" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="Z9" s="41" t="s">
+      <c r="Z10" s="41" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" s="33">
-        <f>(Q9+P9+O9)/3</f>
-        <v>4.4401130494936415E-2</v>
-      </c>
-      <c r="X10" s="34">
-        <f>(Q13+P13+O13)/3</f>
-        <v>7.7363429653382554E-2</v>
-      </c>
-      <c r="Y10" s="34">
-        <f>(Q80+P80+O80)/3</f>
-        <v>3.7847252476826687E-2</v>
-      </c>
-      <c r="Z10" s="35">
-        <f>(Q89+P89+O89)/3</f>
-        <v>0.10381431452687584</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" s="33">
+        <f>(Q10+P10+O10)/3</f>
+        <v>4.4401130494936415E-2</v>
+      </c>
+      <c r="X11" s="34">
+        <f>(Q14+P14+O14)/3</f>
+        <v>7.7363429653382554E-2</v>
+      </c>
+      <c r="Y11" s="34">
+        <f>(Q81+P81+O81)/3</f>
+        <v>3.7847252476826687E-2</v>
+      </c>
+      <c r="Z11" s="35">
+        <f>(Q90+P90+O90)/3</f>
+        <v>0.10381431452687584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>17244000</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>23649000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>42150000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>84573000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>104102000</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>150372000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>285569000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>603660000</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <v>922232000</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <v>1432189000</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>2476500000</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>2834491000</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N13" s="1">
         <v>2646000000</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O13" s="1">
         <v>3145000000</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P13" s="1">
         <v>4517000000</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q13" s="1">
         <v>3946000000</v>
       </c>
-      <c r="W12" s="39" t="s">
+      <c r="W13" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="40" t="s">
+      <c r="X13" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="40" t="s">
+      <c r="Y13" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Z12" s="41" t="s">
+      <c r="Z13" s="41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="15">
-        <f>B12/B3</f>
+      <c r="B14" s="15">
+        <f>B13/B4</f>
         <v>236.21917808219177</v>
       </c>
-      <c r="C13" s="15">
-        <f t="shared" ref="C13:D13" si="6">C12/C3</f>
+      <c r="C14" s="15">
+        <f t="shared" ref="C14:D14" si="6">C13/C4</f>
         <v>1.6041921041921041</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="15">
         <f t="shared" si="6"/>
         <v>0.37653091305396497</v>
       </c>
-      <c r="E13" s="15">
-        <f t="shared" ref="E13" si="7">E12/E3</f>
+      <c r="E14" s="15">
+        <f t="shared" ref="E14" si="7">E13/E4</f>
         <v>0.72443123415336119</v>
       </c>
-      <c r="F13" s="15">
-        <f t="shared" ref="F13" si="8">F12/F3</f>
+      <c r="F14" s="15">
+        <f t="shared" ref="F14" si="8">F13/F4</f>
         <v>0.50969927830710626</v>
       </c>
-      <c r="G13" s="15">
-        <f t="shared" ref="G13" si="9">G12/G3</f>
+      <c r="G14" s="15">
+        <f t="shared" ref="G14" si="9">G13/G4</f>
         <v>0.36387130495383008</v>
       </c>
-      <c r="H13" s="15">
-        <f t="shared" ref="H13" si="10">H12/H3</f>
+      <c r="H14" s="15">
+        <f t="shared" ref="H14" si="10">H13/H4</f>
         <v>0.14182744837834294</v>
       </c>
-      <c r="I13" s="15">
-        <f t="shared" ref="I13" si="11">I12/I3</f>
+      <c r="I14" s="15">
+        <f t="shared" ref="I14" si="11">I13/I4</f>
         <v>0.18874071554261002</v>
       </c>
-      <c r="J13" s="15">
-        <f t="shared" ref="J13" si="12">J12/J3</f>
+      <c r="J14" s="15">
+        <f t="shared" ref="J14" si="12">J13/J4</f>
         <v>0.22793531923307445</v>
       </c>
-      <c r="K13" s="15">
-        <f t="shared" ref="K13" si="13">K12/K3</f>
+      <c r="K14" s="15">
+        <f t="shared" ref="K14" si="13">K13/K4</f>
         <v>0.2045945705023848</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" ref="L13" si="14">L12/L3</f>
+      <c r="L14" s="15">
+        <f t="shared" ref="L14" si="14">L13/L4</f>
         <v>0.21060910295659802</v>
       </c>
-      <c r="M13" s="15">
-        <f t="shared" ref="M13" si="15">M12/M3</f>
+      <c r="M14" s="15">
+        <f t="shared" ref="M14" si="15">M13/M4</f>
         <v>0.13207472177319626</v>
       </c>
-      <c r="N13" s="15">
-        <f t="shared" ref="N13" si="16">N12/N3</f>
+      <c r="N14" s="15">
+        <f t="shared" ref="N14" si="16">N13/N4</f>
         <v>0.10765725445520384</v>
       </c>
-      <c r="O13" s="15">
-        <f t="shared" ref="O13" si="17">O12/O3</f>
+      <c r="O14" s="15">
+        <f t="shared" ref="O14" si="17">O13/O4</f>
         <v>9.9727295788939629E-2</v>
       </c>
-      <c r="P13" s="15">
-        <f t="shared" ref="P13" si="18">P12/P3</f>
+      <c r="P14" s="15">
+        <f t="shared" ref="P14" si="18">P13/P4</f>
         <v>8.3923229845976624E-2</v>
       </c>
-      <c r="Q13" s="15">
-        <f t="shared" ref="Q13" si="19">Q12/Q3</f>
+      <c r="Q14" s="15">
+        <f t="shared" ref="Q14" si="19">Q13/Q4</f>
         <v>4.8439763325231394E-2</v>
       </c>
-      <c r="W13" s="36">
-        <f>Q28/Q72</f>
+      <c r="W14" s="36">
+        <f>Q29/Q73</f>
         <v>0.28086972083035078</v>
       </c>
-      <c r="X13" s="37">
-        <f>Q28/Q54</f>
+      <c r="X14" s="37">
+        <f>Q29/Q55</f>
         <v>0.1524933809419709</v>
       </c>
-      <c r="Y13" s="37">
-        <f>(Q28-Q98)/Q73</f>
+      <c r="Y14" s="37">
+        <f>(Q29-Q99)/Q74</f>
         <v>0.15325464731657898</v>
       </c>
-      <c r="Z13" s="38">
-        <f>(Q61+Q56)/Q72</f>
+      <c r="Z14" s="38">
+        <f>(Q62+Q57)/Q73</f>
         <v>6.9322655690765927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" s="1">
         <v>176000000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>79997000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>77363000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>61432000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>177569000</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>313083000</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>424350000</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>517545000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>1068360000</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <v>1640132000</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K16" s="1">
         <v>2266597000</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>3854573000</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>4294861000</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="1">
         <v>3989000000</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O16" s="1">
         <v>4636000000</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="1">
         <v>7110000000</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="1">
         <v>7197000000</v>
       </c>
-      <c r="W15" s="39" t="s">
+      <c r="W16" s="39" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>80006000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>93246000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>163840000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>263582000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>455730000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>807539000</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2074779000</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3385045000</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4762654000</v>
-      </c>
-      <c r="K16" s="1">
-        <v>7667472000</v>
-      </c>
-      <c r="L16" s="1">
-        <v>13390837000</v>
-      </c>
-      <c r="M16" s="1">
-        <v>21714108000</v>
-      </c>
-      <c r="N16" s="1">
-        <v>24498000000</v>
-      </c>
-      <c r="O16" s="1">
-        <v>29542000000</v>
-      </c>
-      <c r="P16" s="1">
-        <v>47327000000</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>67806000000</v>
-      </c>
-      <c r="W16" s="33">
-        <f>(SUM(M35:Q35)/5)</f>
-        <v>6.5503438863175154E-2</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80006000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>93246000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>163840000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>263582000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>455730000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>807539000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2074779000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3385045000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4762654000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7667472000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>13390837000</v>
+      </c>
+      <c r="M17" s="1">
+        <v>21714108000</v>
+      </c>
+      <c r="N17" s="1">
+        <v>24498000000</v>
+      </c>
+      <c r="O17" s="1">
+        <v>29542000000</v>
+      </c>
+      <c r="P17" s="1">
+        <v>47327000000</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>67806000000</v>
+      </c>
+      <c r="W17" s="33">
+        <f>(SUM(M36:Q36)/5)</f>
+        <v>6.5503438863175154E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>1749000</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>3747000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>2531000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>992000</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>43000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <v>254000</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H18" s="1">
         <v>32934000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I18" s="1">
         <v>100886000</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J18" s="1">
         <v>118851000</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K18" s="1">
         <v>198810000</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <v>471259000</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>663071000</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N18" s="1">
         <v>685000000</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O18" s="1">
         <v>748000000</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P18" s="1">
         <v>371000000</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q18" s="1">
         <v>191000000</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>2895000</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>4157000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>6940000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>10623000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>16919000</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>28825000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>106083000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="1">
         <v>231931000</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J19" s="1">
         <v>422590000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K19" s="1">
         <v>947099000</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19" s="1">
         <v>1636003000</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <v>1901050000</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N19" s="1">
         <v>2154000000</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O19" s="1">
         <v>2322000000</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P19" s="1">
         <v>2911000000</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="1">
         <v>3747000000</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W19" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="X18" s="45"/>
-    </row>
-    <row r="19" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="X19" s="46"/>
+    </row>
+    <row r="20" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B20" s="10">
         <v>-73403000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <v>-74781000</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>-46243000</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>-142540000</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>-236960000</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>-366998000</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>67591000</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>48181000</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10">
         <v>-334183000</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>497693000</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L20" s="10">
         <v>177408000</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M20" s="10">
         <v>1645867000</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N20" s="10">
         <v>2087000000</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O20" s="10">
         <v>4052000000</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P20" s="10">
         <v>9500000000</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q20" s="10">
         <v>17626000000</v>
       </c>
-      <c r="W19" s="42" t="s">
+      <c r="W20" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="43"/>
-    </row>
-    <row r="20" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="X20" s="44"/>
+    </row>
+    <row r="21" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="15">
-        <f>(C19/B19)-1</f>
+      <c r="B21" s="1"/>
+      <c r="C21" s="15">
+        <f>(C20/B20)-1</f>
         <v>1.8773074669972578E-2</v>
       </c>
-      <c r="D20" s="15">
-        <f>(D19/C19)-1</f>
+      <c r="D21" s="15">
+        <f>(D20/C20)-1</f>
         <v>-0.38162099998662757</v>
       </c>
-      <c r="E20" s="15">
-        <f>(E19/D19)-1</f>
+      <c r="E21" s="15">
+        <f>(E20/D20)-1</f>
         <v>2.0824124732391929</v>
       </c>
-      <c r="F20" s="15">
-        <f t="shared" ref="F20" si="20">(F19/E19)-1</f>
+      <c r="F21" s="15">
+        <f t="shared" ref="F21" si="20">(F20/E20)-1</f>
         <v>0.66241055142416161</v>
       </c>
-      <c r="G20" s="15">
-        <f t="shared" ref="G20" si="21">(G19/F19)-1</f>
+      <c r="G21" s="15">
+        <f t="shared" ref="G21" si="21">(G20/F20)-1</f>
         <v>0.54877616475354496</v>
       </c>
-      <c r="H20" s="15">
-        <f t="shared" ref="H20" si="22">(H19/G19)-1</f>
+      <c r="H21" s="15">
+        <f t="shared" ref="H21" si="22">(H20/G20)-1</f>
         <v>-1.1841726657910943</v>
       </c>
-      <c r="I20" s="15">
-        <f t="shared" ref="I20" si="23">(I19/H19)-1</f>
+      <c r="I21" s="15">
+        <f t="shared" ref="I21" si="23">(I20/H20)-1</f>
         <v>-0.2871684099954136</v>
       </c>
-      <c r="J20" s="15">
-        <f t="shared" ref="J20" si="24">(J19/I19)-1</f>
+      <c r="J21" s="15">
+        <f t="shared" ref="J21" si="24">(J20/I20)-1</f>
         <v>-7.9359913658911188</v>
       </c>
-      <c r="K20" s="15">
-        <f t="shared" ref="K20" si="25">(K19/J19)-1</f>
+      <c r="K21" s="15">
+        <f t="shared" ref="K21" si="25">(K20/J20)-1</f>
         <v>-2.4892828180966715</v>
       </c>
-      <c r="L20" s="15">
-        <f t="shared" ref="L20" si="26">(L19/K19)-1</f>
+      <c r="L21" s="15">
+        <f t="shared" ref="L21" si="26">(L20/K20)-1</f>
         <v>-0.64353929028537671</v>
       </c>
-      <c r="M20" s="15">
-        <f t="shared" ref="M20" si="27">(M19/L19)-1</f>
+      <c r="M21" s="15">
+        <f t="shared" ref="M21" si="27">(M20/L20)-1</f>
         <v>8.2772986562049056</v>
       </c>
-      <c r="N20" s="15">
-        <f t="shared" ref="N20" si="28">(N19/M19)-1</f>
+      <c r="N21" s="15">
+        <f t="shared" ref="N21" si="28">(N20/M20)-1</f>
         <v>0.26802469458346279</v>
       </c>
-      <c r="O20" s="15">
-        <f t="shared" ref="O20" si="29">(O19/N19)-1</f>
+      <c r="O21" s="15">
+        <f t="shared" ref="O21" si="29">(O20/N20)-1</f>
         <v>0.9415428845232392</v>
       </c>
-      <c r="P20" s="15">
-        <f t="shared" ref="P20" si="30">(P19/O19)-1</f>
+      <c r="P21" s="15">
+        <f t="shared" ref="P21" si="30">(P20/O20)-1</f>
         <v>1.3445212240868707</v>
       </c>
-      <c r="Q20" s="15">
-        <f t="shared" ref="Q20" si="31">(Q19/P19)-1</f>
+      <c r="Q21" s="15">
+        <f t="shared" ref="Q21" si="31">(Q20/P20)-1</f>
         <v>0.85536842105263156</v>
       </c>
-      <c r="W20" s="21" t="s">
+      <c r="W21" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="X20" s="24">
-        <f>Q17</f>
+      <c r="X21" s="24">
+        <f>Q18</f>
         <v>191000000</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>-1005.5205</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>-5.0726000000000004</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>-0.41310000000000002</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>-1.2210000000000001</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>-1.1601999999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>-0.8881</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I22" s="2">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="2">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L22" s="2">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M22" s="2">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N22" s="2">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O22" s="2">
         <v>0.1285</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P22" s="2">
         <v>0.17649999999999999</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q22" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="W21" s="21" t="s">
+      <c r="W22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="X21" s="24">
-        <f>Q56</f>
+      <c r="X22" s="24">
+        <f>Q57</f>
         <v>1502000000</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B23" s="10">
         <v>-79933000</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="10">
         <v>-78504000</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>-51897000</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>-146838000</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>-251488000</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>-394283000</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>-61283000</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>-186689000</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J23" s="10">
         <v>-716629000</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>-667340000</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L23" s="10">
         <v>-1632086000</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M23" s="10">
         <v>-252840000</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N23" s="10">
         <v>80000000</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O23" s="10">
         <v>1994000000</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P23" s="10">
         <v>6496000000</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q23" s="10">
         <v>13656000000</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="W23" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="X22" s="24">
-        <f>Q61</f>
+      <c r="X23" s="24">
+        <f>Q62</f>
         <v>1597000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-1094.9726000000001</v>
-      </c>
-      <c r="C23" s="2">
-        <v>-5.3251999999999997</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-0.46360000000000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-1.2578</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-1.2313000000000001</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-0.95409999999999995</v>
-      </c>
-      <c r="H23" s="2">
-        <v>-3.04E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-5.8400000000000001E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>-0.17710000000000001</v>
-      </c>
-      <c r="K23" s="2">
-        <v>-9.5299999999999996E-2</v>
-      </c>
-      <c r="L23" s="2">
-        <v>-0.13880000000000001</v>
-      </c>
-      <c r="M23" s="2">
-        <v>-1.18E-2</v>
-      </c>
-      <c r="N23" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="O23" s="2">
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.1207</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.1676</v>
-      </c>
-      <c r="W23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="X23" s="25">
-        <f>X20/(X21+X22)</f>
-        <v>6.1632784769280413E-2</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-1094.9726000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-5.3251999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.46360000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-1.2578</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1.2313000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-0.95409999999999995</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-0.17710000000000001</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-9.5299999999999996E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-0.13880000000000001</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.1207</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.1676</v>
+      </c>
+      <c r="W24" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="X24" s="25">
+        <f>X21/(X22+X23)</f>
+        <v>6.1632784769280413E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>1886000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>-4181000</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>-3817000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>-7317000</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>-2434000</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>-1794000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>-10143000</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <v>-97947000</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <v>-158995000</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <v>-79008000</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L25" s="1">
         <v>-576946000</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M25" s="1">
         <v>-751905000</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N25" s="1">
         <v>-745000000</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O25" s="1">
         <v>-840000000</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P25" s="1">
         <v>-153000000</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q25" s="1">
         <v>63000000</v>
       </c>
-      <c r="W24" s="21" t="s">
+      <c r="W25" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="X24" s="24">
-        <f>Q27</f>
+      <c r="X25" s="24">
+        <f>Q28</f>
         <v>1132000000</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B26" s="10">
         <v>-78047000</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C26" s="10">
         <v>-82685000</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>-55714000</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>-154155000</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>-253922000</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>-396077000</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>-71426000</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>-284636000</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>-875624000</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>-746348000</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L26" s="10">
         <v>-2209032000</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M26" s="10">
         <v>-1004745000</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N26" s="10">
         <v>-665000000</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O26" s="10">
         <v>1154000000</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P26" s="10">
         <v>6343000000</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q26" s="10">
         <v>13719000000</v>
       </c>
-      <c r="W25" s="21" t="s">
+      <c r="W26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="X25" s="24">
-        <f>Q25</f>
+      <c r="X26" s="24">
+        <f>Q26</f>
         <v>13719000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-1069.1369999999999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-5.6087999999999996</v>
-      </c>
-      <c r="D26" s="2">
-        <v>-0.49769999999999998</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1.3205</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-1.2432000000000001</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-0.95840000000000003</v>
-      </c>
-      <c r="H26" s="2">
-        <v>-3.5499999999999997E-2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="J26" s="2">
-        <v>-0.21640000000000001</v>
-      </c>
-      <c r="K26" s="2">
-        <v>-0.1066</v>
-      </c>
-      <c r="L26" s="2">
-        <v>-0.18790000000000001</v>
-      </c>
-      <c r="M26" s="2">
-        <v>-4.6800000000000001E-2</v>
-      </c>
-      <c r="N26" s="2">
-        <v>-2.7099999999999999E-2</v>
-      </c>
-      <c r="O26" s="2">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.1178</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.16839999999999999</v>
-      </c>
-      <c r="W26" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="X26" s="25">
-        <f>X24/X25</f>
-        <v>8.2513302718857054E-2</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-1069.1369999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-5.6087999999999996</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.49769999999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1.3205</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1.2432000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.95840000000000003</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-3.5499999999999997E-2</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>-0.21640000000000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>-0.1066</v>
+      </c>
+      <c r="L27" s="2">
+        <v>-0.18790000000000001</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-4.6800000000000001E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.1178</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="X27" s="25">
+        <f>X25/X26</f>
+        <v>8.2513302718857054E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>110000</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>97000</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>26000</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>173000</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>489000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>136000</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>2588000</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>9404000</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>13039000</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <v>26698000</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <v>31546000</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28" s="1">
         <v>57837000</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N28" s="1">
         <v>110000000</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="1">
         <v>292000000</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P28" s="1">
         <v>699000000</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q28" s="1">
         <v>1132000000</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="W28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="X27" s="26">
-        <f>X23*(1-X26)</f>
+      <c r="X28" s="26">
+        <f>X24*(1-X27)</f>
         <v>5.6547260142206617E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:24" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B29" s="11">
         <v>-78157000</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>-82782000</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>-55740000</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>-154328000</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>-254411000</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>-396213000</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H29" s="11">
         <v>-74014000</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I29" s="11">
         <v>-294040000</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J29" s="11">
         <v>-888663000</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <v>-674914000</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L29" s="11">
         <v>-1961400000</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M29" s="11">
         <v>-976091000</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N29" s="11">
         <v>-862000000</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>690000000</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P29" s="11">
         <v>5519000000</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q29" s="11">
         <v>12556000000</v>
       </c>
-      <c r="W28" s="42" t="s">
+      <c r="W29" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="X28" s="43"/>
-    </row>
-    <row r="29" spans="1:24" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="X29" s="44"/>
+    </row>
+    <row r="30" spans="1:24" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="15">
-        <f>(C28/B28)-1</f>
+      <c r="B30" s="1"/>
+      <c r="C30" s="15">
+        <f>(C29/B29)-1</f>
         <v>5.9175761608045274E-2</v>
       </c>
-      <c r="D29" s="15">
-        <f>(D28/C28)-1</f>
+      <c r="D30" s="15">
+        <f>(D29/C29)-1</f>
         <v>-0.32666521707617602</v>
       </c>
-      <c r="E29" s="15">
-        <f>(E28/D28)-1</f>
+      <c r="E30" s="15">
+        <f>(E29/D29)-1</f>
         <v>1.7687118765697885</v>
       </c>
-      <c r="F29" s="15">
-        <f t="shared" ref="F29" si="32">(F28/E28)-1</f>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30" si="32">(F29/E29)-1</f>
         <v>0.64850837177958631</v>
       </c>
-      <c r="G29" s="15">
-        <f t="shared" ref="G29" si="33">(G28/F28)-1</f>
+      <c r="G30" s="15">
+        <f t="shared" ref="G30" si="33">(G29/F29)-1</f>
         <v>0.55737369846429585</v>
       </c>
-      <c r="H29" s="15">
-        <f t="shared" ref="H29" si="34">(H28/G28)-1</f>
+      <c r="H30" s="15">
+        <f t="shared" ref="H30" si="34">(H29/G29)-1</f>
         <v>-0.81319643726985236</v>
       </c>
-      <c r="I29" s="15">
-        <f t="shared" ref="I29" si="35">(I28/H28)-1</f>
+      <c r="I30" s="15">
+        <f t="shared" ref="I30" si="35">(I29/H29)-1</f>
         <v>2.972761909908936</v>
       </c>
-      <c r="J29" s="15">
-        <f t="shared" ref="J29" si="36">(J28/I28)-1</f>
+      <c r="J30" s="15">
+        <f t="shared" ref="J30" si="36">(J29/I29)-1</f>
         <v>2.0222520745476804</v>
       </c>
-      <c r="K29" s="15">
-        <f t="shared" ref="K29" si="37">(K28/J28)-1</f>
+      <c r="K30" s="15">
+        <f t="shared" ref="K30" si="37">(K29/J29)-1</f>
         <v>-0.24052874936843327</v>
       </c>
-      <c r="L29" s="15">
-        <f t="shared" ref="L29" si="38">(L28/K28)-1</f>
+      <c r="L30" s="15">
+        <f t="shared" ref="L30" si="38">(L29/K29)-1</f>
         <v>1.9061480425654231</v>
       </c>
-      <c r="M29" s="15">
-        <f t="shared" ref="M29" si="39">(M28/L28)-1</f>
+      <c r="M30" s="15">
+        <f t="shared" ref="M30" si="39">(M29/L29)-1</f>
         <v>-0.50234985214642602</v>
       </c>
-      <c r="N29" s="15">
-        <f t="shared" ref="N29" si="40">(N28/M28)-1</f>
+      <c r="N30" s="15">
+        <f t="shared" ref="N30" si="40">(N29/M29)-1</f>
         <v>-0.11688561824665933</v>
       </c>
-      <c r="O29" s="15">
-        <f t="shared" ref="O29" si="41">(O28/N28)-1</f>
+      <c r="O30" s="15">
+        <f t="shared" ref="O30" si="41">(O29/N29)-1</f>
         <v>-1.8004640371229699</v>
       </c>
-      <c r="P29" s="15">
-        <f t="shared" ref="P29" si="42">(P28/O28)-1</f>
+      <c r="P30" s="15">
+        <f t="shared" ref="P30" si="42">(P29/O29)-1</f>
         <v>6.9985507246376812</v>
       </c>
-      <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="43">(Q28/P28)-1</f>
+      <c r="Q30" s="15">
+        <f t="shared" ref="Q30" si="43">(Q29/P29)-1</f>
         <v>1.2750498278673672</v>
       </c>
-      <c r="W29" s="21" t="s">
+      <c r="W30" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="X29" s="28">
+      <c r="X30" s="28">
         <v>4.095E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2">
-        <v>-1070.6438000000001</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-5.6154000000000002</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-0.49790000000000001</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1.3219000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-1.2456</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-0.95879999999999999</v>
-      </c>
-      <c r="H30" s="2">
-        <v>-3.6799999999999999E-2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-9.1899999999999996E-2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>-0.21959999999999999</v>
-      </c>
-      <c r="K30" s="2">
-        <v>-9.64E-2</v>
-      </c>
-      <c r="L30" s="2">
-        <v>-0.1668</v>
-      </c>
-      <c r="M30" s="2">
-        <v>-4.5499999999999999E-2</v>
-      </c>
-      <c r="N30" s="2">
-        <v>-3.5099999999999999E-2</v>
-      </c>
-      <c r="O30" s="2">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="W30" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="X30" s="27">
-        <v>2.11</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="12">
-        <v>-0.04</v>
-      </c>
-      <c r="C31" s="12">
-        <v>-0.04</v>
-      </c>
-      <c r="D31" s="12">
-        <v>-0.05</v>
-      </c>
-      <c r="E31" s="12">
-        <v>-0.2</v>
-      </c>
-      <c r="F31" s="12">
-        <v>-0.17</v>
-      </c>
-      <c r="G31" s="12">
-        <v>-0.25</v>
-      </c>
-      <c r="H31" s="12">
-        <v>-0.04</v>
-      </c>
-      <c r="I31" s="12">
-        <v>-0.16</v>
-      </c>
-      <c r="J31" s="12">
-        <v>-0.46</v>
-      </c>
-      <c r="K31" s="12">
-        <v>-0.31</v>
-      </c>
-      <c r="L31" s="12">
-        <v>-0.79</v>
-      </c>
-      <c r="M31" s="12">
-        <v>-0.38</v>
-      </c>
-      <c r="N31" s="12">
-        <v>-0.33</v>
-      </c>
-      <c r="O31" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="P31" s="12">
-        <v>1.87</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>4.24</v>
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-1070.6438000000001</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-5.6154000000000002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-0.49790000000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1.3219000000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-1.2456</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-0.95879999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-3.6799999999999999E-2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-9.1899999999999996E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>-0.21959999999999999</v>
+      </c>
+      <c r="K31" s="2">
+        <v>-9.64E-2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>-0.1668</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-4.5499999999999999E-2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.15409999999999999</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="X31" s="28">
-        <v>8.4000000000000005E-2</v>
+        <v>130</v>
+      </c>
+      <c r="X31" s="27">
+        <v>2.11</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="12">
         <v>-0.04</v>
@@ -4342,82 +4491,84 @@
         <v>-0.33</v>
       </c>
       <c r="O32" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="P32" s="12">
+        <v>1.87</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>4.24</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="X32" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="D33" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="E33" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="F33" s="12">
+        <v>-0.17</v>
+      </c>
+      <c r="G33" s="12">
+        <v>-0.25</v>
+      </c>
+      <c r="H33" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="I33" s="12">
+        <v>-0.16</v>
+      </c>
+      <c r="J33" s="12">
+        <v>-0.46</v>
+      </c>
+      <c r="K33" s="12">
+        <v>-0.31</v>
+      </c>
+      <c r="L33" s="12">
+        <v>-0.79</v>
+      </c>
+      <c r="M33" s="12">
+        <v>-0.38</v>
+      </c>
+      <c r="N33" s="12">
+        <v>-0.33</v>
+      </c>
+      <c r="O33" s="12">
         <v>0.21</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P33" s="12">
         <v>1.63</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q33" s="12">
         <v>3.71</v>
       </c>
-      <c r="W32" s="23" t="s">
+      <c r="W33" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="X32" s="26">
-        <f>(X29)+((X30)*(X31-X29))</f>
+      <c r="X33" s="26">
+        <f>(X30)+((X31)*(X32-X30))</f>
         <v>0.1317855</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2044950000</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2044950000</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1165407810</v>
-      </c>
-      <c r="E33" s="1">
-        <v>760774530</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1505832225</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1610235000</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1791315000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1868595000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1923030000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>2163180000</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2486370000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>2557875000</v>
-      </c>
-      <c r="N33" s="1">
-        <v>2655000000</v>
-      </c>
-      <c r="O33" s="1">
-        <v>2880000000</v>
-      </c>
-      <c r="P33" s="1">
-        <v>2958000000</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>2958000000</v>
-      </c>
-      <c r="W33" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="X33" s="43"/>
-    </row>
-    <row r="34" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>2044950000</v>
@@ -4462,709 +4613,713 @@
         <v>2880000000</v>
       </c>
       <c r="P34" s="1">
+        <v>2958000000</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>2958000000</v>
+      </c>
+      <c r="W34" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="X34" s="44"/>
+    </row>
+    <row r="35" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2044950000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2044950000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1165407810</v>
+      </c>
+      <c r="E35" s="1">
+        <v>760774530</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1505832225</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1610235000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1791315000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1868595000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1923030000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2163180000</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2486370000</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2557875000</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2655000000</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2880000000</v>
+      </c>
+      <c r="P35" s="1">
         <v>3387000000</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q35" s="1">
         <v>3387000000</v>
       </c>
-      <c r="W34" s="21" t="s">
+      <c r="W35" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="X34" s="24">
-        <f>X21+X22</f>
+      <c r="X35" s="24">
+        <f>X22+X23</f>
         <v>3099000000</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="36" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="46">
-        <f>(C34-B34)/B34</f>
+      <c r="B36" s="1"/>
+      <c r="C36" s="42">
+        <f>(C35-B35)/B35</f>
         <v>0</v>
       </c>
-      <c r="D35" s="46">
-        <f t="shared" ref="D35:G35" si="44">(D34-C34)/C34</f>
+      <c r="D36" s="42">
+        <f t="shared" ref="D36:G36" si="44">(D35-C35)/C35</f>
         <v>-0.4301044964424558</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E36" s="42">
         <f t="shared" si="44"/>
         <v>-0.34720316487324726</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F36" s="42">
         <f t="shared" si="44"/>
         <v>0.97934100790677103</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G36" s="42">
         <f t="shared" si="44"/>
         <v>6.9332275712189653E-2</v>
       </c>
-      <c r="H35" s="46">
-        <f t="shared" ref="H35" si="45">(H34-G34)/G34</f>
+      <c r="H36" s="42">
+        <f t="shared" ref="H36" si="45">(H35-G35)/G35</f>
         <v>0.11245563535757203</v>
       </c>
-      <c r="I35" s="46">
-        <f t="shared" ref="I35" si="46">(I34-H34)/H34</f>
+      <c r="I36" s="42">
+        <f t="shared" ref="I36" si="46">(I35-H35)/H35</f>
         <v>4.3141491027541216E-2</v>
       </c>
-      <c r="J35" s="46">
-        <f t="shared" ref="J35" si="47">(J34-I34)/I34</f>
+      <c r="J36" s="42">
+        <f t="shared" ref="J36" si="47">(J35-I35)/I35</f>
         <v>2.9131513249259472E-2</v>
       </c>
-      <c r="K35" s="46">
-        <f t="shared" ref="K35" si="48">(K34-J34)/J34</f>
+      <c r="K36" s="42">
+        <f t="shared" ref="K36" si="48">(K35-J35)/J35</f>
         <v>0.12488104709754919</v>
       </c>
-      <c r="L35" s="46">
-        <f t="shared" ref="L35" si="49">(L34-K34)/K34</f>
+      <c r="L36" s="42">
+        <f t="shared" ref="L36" si="49">(L35-K35)/K35</f>
         <v>0.14940504257620726</v>
       </c>
-      <c r="M35" s="46">
-        <f t="shared" ref="M35" si="50">(M34-L34)/L34</f>
+      <c r="M36" s="42">
+        <f t="shared" ref="M36" si="50">(M35-L35)/L35</f>
         <v>2.8758792939103994E-2</v>
       </c>
-      <c r="N35" s="46">
-        <f t="shared" ref="N35" si="51">(N34-M34)/M34</f>
+      <c r="N36" s="42">
+        <f t="shared" ref="N36" si="51">(N35-M35)/M35</f>
         <v>3.7970971998240725E-2</v>
       </c>
-      <c r="O35" s="46">
-        <f t="shared" ref="O35" si="52">(O34-N34)/N34</f>
+      <c r="O36" s="42">
+        <f t="shared" ref="O36" si="52">(O35-N35)/N35</f>
         <v>8.4745762711864403E-2</v>
       </c>
-      <c r="P35" s="46">
-        <f t="shared" ref="P35" si="53">(P34-O34)/O34</f>
+      <c r="P36" s="42">
+        <f t="shared" ref="P36" si="53">(P35-O35)/O35</f>
         <v>0.17604166666666668</v>
       </c>
-      <c r="Q35" s="46">
-        <f t="shared" ref="Q35" si="54">(Q34-P34)/P34</f>
+      <c r="Q36" s="42">
+        <f t="shared" ref="Q36" si="54">(Q35-P35)/P35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="22" t="s">
+      <c r="W36" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="X35" s="25">
-        <f>X34/X38</f>
+      <c r="X36" s="25">
+        <f>X35/X39</f>
         <v>5.1384598548497012E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:24" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W36" s="21" t="s">
+      <c r="W37" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="X36" s="29">
+      <c r="X37" s="29">
         <v>600000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="P38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q38" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W37" s="22" t="s">
+      <c r="W38" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="X37" s="25">
-        <f>X36/X38</f>
+      <c r="X38" s="25">
+        <f>X37/X39</f>
         <v>0.99486154014515027</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>17211000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>9277000</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>69627000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>99558000</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>255266000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>201890000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>845889000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I39" s="1">
         <v>1905713000</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39" s="1">
         <v>1196908000</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>3393216000</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L39" s="1">
         <v>3367914000</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M39" s="1">
         <v>3685618000</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N39" s="1">
         <v>6268000000</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O39" s="1">
         <v>19384000000</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P39" s="1">
         <v>17576000000</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q39" s="1">
         <v>16253000000</v>
       </c>
-      <c r="W38" s="23" t="s">
+      <c r="W39" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="X38" s="30">
-        <f>X34+X36</f>
+      <c r="X39" s="30">
+        <f>X35+X37</f>
         <v>603099000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="1">
-        <v>25061000</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P39" s="1">
-        <v>131000000</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>5932000000</v>
-      </c>
-      <c r="W39" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="X39" s="43"/>
     </row>
     <row r="40" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="1">
+        <v>25061000</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="1">
+        <v>131000000</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5932000000</v>
+      </c>
+      <c r="W40" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="X40" s="44"/>
+    </row>
+    <row r="41" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>17211000</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>9277000</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>69627000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>99558000</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F41" s="1">
         <v>280327000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G41" s="1">
         <v>201890000</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H41" s="1">
         <v>845889000</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I41" s="1">
         <v>1905713000</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>1196908000</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K41" s="1">
         <v>3393216000</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L41" s="1">
         <v>3367914000</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M41" s="1">
         <v>3685618000</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N41" s="1">
         <v>6268000000</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O41" s="1">
         <v>19384000000</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P41" s="1">
         <v>17707000000</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q41" s="1">
         <v>22185000000</v>
       </c>
-      <c r="W40" s="32" t="s">
+      <c r="W41" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X40" s="31">
-        <f>(X35*X27)+(X37*X32)</f>
+      <c r="X41" s="31">
+        <f>(X36*X28)+(X38*X33)</f>
         <v>0.13139889132494117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1">
-        <v>59000</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3320000</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3488000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>6710000</v>
-      </c>
-      <c r="F41" s="1">
-        <v>9539000</v>
-      </c>
-      <c r="G41" s="1">
-        <v>26842000</v>
-      </c>
-      <c r="H41" s="1">
-        <v>49109000</v>
-      </c>
-      <c r="I41" s="1">
-        <v>226604000</v>
-      </c>
-      <c r="J41" s="1">
-        <v>168965000</v>
-      </c>
-      <c r="K41" s="1">
-        <v>499142000</v>
-      </c>
-      <c r="L41" s="1">
-        <v>515381000</v>
-      </c>
-      <c r="M41" s="1">
-        <v>949022000</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1324000000</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1886000000</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1913000000</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>2952000000</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
-        <v>2108000</v>
+        <v>59000</v>
       </c>
       <c r="C42" s="1">
-        <v>16650000</v>
+        <v>3320000</v>
       </c>
       <c r="D42" s="1">
-        <v>23222000</v>
+        <v>3488000</v>
       </c>
       <c r="E42" s="1">
-        <v>45182000</v>
+        <v>6710000</v>
       </c>
       <c r="F42" s="1">
-        <v>50082000</v>
+        <v>9539000</v>
       </c>
       <c r="G42" s="1">
-        <v>268504000</v>
+        <v>26842000</v>
       </c>
       <c r="H42" s="1">
-        <v>340355000</v>
+        <v>49109000</v>
       </c>
       <c r="I42" s="1">
-        <v>953675000</v>
+        <v>226604000</v>
       </c>
       <c r="J42" s="1">
-        <v>1277838000</v>
+        <v>168965000</v>
       </c>
       <c r="K42" s="1">
-        <v>2067454000</v>
+        <v>499142000</v>
       </c>
       <c r="L42" s="1">
-        <v>2263537000</v>
+        <v>515381000</v>
       </c>
       <c r="M42" s="1">
-        <v>3113446000</v>
+        <v>949022000</v>
       </c>
       <c r="N42" s="1">
-        <v>3552000000</v>
+        <v>1324000000</v>
       </c>
       <c r="O42" s="1">
-        <v>4101000000</v>
+        <v>1886000000</v>
       </c>
       <c r="P42" s="1">
-        <v>5757000000</v>
+        <v>1913000000</v>
       </c>
       <c r="Q42" s="1">
-        <v>12839000000</v>
+        <v>2952000000</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2108000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>16650000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>23222000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45182000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>50082000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>268504000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>340355000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>953675000</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1277838000</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2067454000</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2263537000</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3113446000</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3552000000</v>
+      </c>
+      <c r="O43" s="1">
+        <v>4101000000</v>
+      </c>
+      <c r="P43" s="1">
+        <v>5757000000</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>12839000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>2930000</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>2180000</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>4222000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E44" s="1">
         <v>84436000</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F44" s="1">
         <v>32890000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G44" s="1">
         <v>27532000</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <v>30586000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I44" s="1">
         <v>112665000</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>147857000</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <v>299984000</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L44" s="1">
         <v>423688000</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M44" s="1">
         <v>558222000</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N44" s="1">
         <v>959000000</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O44" s="1">
         <v>1346000000</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P44" s="1">
         <v>1723000000</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q44" s="1">
         <v>2941000000</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B45" s="10">
         <v>22308000</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C45" s="10">
         <v>31427000</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>100559000</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>235886000</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>372838000</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>524768000</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H45" s="10">
         <v>1265939000</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>3198657000</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>2791568000</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K45" s="10">
         <v>6259796000</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L45" s="10">
         <v>6570520000</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M45" s="10">
         <v>8306308000</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N45" s="10">
         <v>12103000000</v>
       </c>
-      <c r="O44" s="10">
+      <c r="O45" s="10">
         <v>26717000000</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P45" s="10">
         <v>27100000000</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q45" s="10">
         <v>40917000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="1">
-        <v>11998000</v>
-      </c>
-      <c r="C45" s="1">
-        <v>18793000</v>
-      </c>
-      <c r="D45" s="1">
-        <v>23535000</v>
-      </c>
-      <c r="E45" s="1">
-        <v>122599000</v>
-      </c>
-      <c r="F45" s="1">
-        <v>310171000</v>
-      </c>
-      <c r="G45" s="1">
-        <v>562300000</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1120919000</v>
-      </c>
-      <c r="I45" s="1">
-        <v>2596011000</v>
-      </c>
-      <c r="J45" s="1">
-        <v>5194737000</v>
-      </c>
-      <c r="K45" s="1">
-        <v>15036917000</v>
-      </c>
-      <c r="L45" s="1">
-        <v>20491616000</v>
-      </c>
-      <c r="M45" s="1">
-        <v>19691231000</v>
-      </c>
-      <c r="N45" s="1">
-        <v>20199000000</v>
-      </c>
-      <c r="O45" s="1">
-        <v>23375000000</v>
-      </c>
-      <c r="P45" s="1">
-        <v>31176000000</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>36635000000</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11998000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>18793000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23535000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>122599000</v>
+      </c>
+      <c r="F46" s="1">
+        <v>310171000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>562300000</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1120919000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2596011000</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5194737000</v>
+      </c>
+      <c r="K46" s="1">
+        <v>15036917000</v>
       </c>
       <c r="L46" s="1">
-        <v>60237000</v>
+        <v>20491616000</v>
       </c>
       <c r="M46" s="1">
-        <v>68159000</v>
+        <v>19691231000</v>
       </c>
       <c r="N46" s="1">
-        <v>198000000</v>
+        <v>20199000000</v>
       </c>
       <c r="O46" s="1">
-        <v>207000000</v>
+        <v>23375000000</v>
       </c>
       <c r="P46" s="1">
-        <v>200000000</v>
+        <v>31176000000</v>
       </c>
       <c r="Q46" s="1">
-        <v>194000000</v>
+        <v>36635000000</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>92</v>
@@ -5181,11 +5336,11 @@
       <c r="F47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G47" s="1">
-        <v>14267000</v>
-      </c>
-      <c r="H47" s="1">
-        <v>13930000</v>
+      <c r="G47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>92</v>
@@ -5193,31 +5348,31 @@
       <c r="J47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K47" s="1">
-        <v>376145000</v>
+      <c r="K47" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="L47" s="1">
-        <v>361502000</v>
+        <v>60237000</v>
       </c>
       <c r="M47" s="1">
-        <v>282492000</v>
+        <v>68159000</v>
       </c>
       <c r="N47" s="1">
-        <v>339000000</v>
+        <v>198000000</v>
       </c>
       <c r="O47" s="1">
-        <v>313000000</v>
+        <v>207000000</v>
       </c>
       <c r="P47" s="1">
-        <v>1517000000</v>
+        <v>200000000</v>
       </c>
       <c r="Q47" s="1">
-        <v>399000000</v>
+        <v>194000000</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>92</v>
@@ -5250,27 +5405,27 @@
         <v>376145000</v>
       </c>
       <c r="L48" s="1">
-        <v>421739000</v>
+        <v>361502000</v>
       </c>
       <c r="M48" s="1">
-        <v>350651000</v>
+        <v>282492000</v>
       </c>
       <c r="N48" s="1">
-        <v>537000000</v>
+        <v>339000000</v>
       </c>
       <c r="O48" s="1">
-        <v>520000000</v>
+        <v>313000000</v>
       </c>
       <c r="P48" s="1">
-        <v>1717000000</v>
+        <v>1517000000</v>
       </c>
       <c r="Q48" s="1">
-        <v>593000000</v>
+        <v>399000000</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
@@ -5287,11 +5442,11 @@
       <c r="F49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>92</v>
+      <c r="G49" s="1">
+        <v>14267000</v>
+      </c>
+      <c r="H49" s="1">
+        <v>13930000</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>92</v>
@@ -5299,31 +5454,31 @@
       <c r="J49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>92</v>
+      <c r="K49" s="1">
+        <v>376145000</v>
+      </c>
+      <c r="L49" s="1">
+        <v>421739000</v>
+      </c>
+      <c r="M49" s="1">
+        <v>350651000</v>
+      </c>
+      <c r="N49" s="1">
+        <v>537000000</v>
+      </c>
+      <c r="O49" s="1">
+        <v>520000000</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1717000000</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>593000000</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>92</v>
@@ -5376,643 +5531,643 @@
     </row>
     <row r="51" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1">
-        <v>531000</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1479000</v>
-      </c>
-      <c r="D51" s="1">
-        <v>6330000</v>
-      </c>
-      <c r="E51" s="1">
-        <v>27597000</v>
-      </c>
-      <c r="F51" s="1">
-        <v>30439000</v>
-      </c>
-      <c r="G51" s="1">
-        <v>12854000</v>
-      </c>
-      <c r="H51" s="1">
-        <v>16142000</v>
-      </c>
-      <c r="I51" s="1">
-        <v>54583000</v>
-      </c>
-      <c r="J51" s="1">
-        <v>106155000</v>
-      </c>
-      <c r="K51" s="1">
-        <v>991218000</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1171497000</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1391424000</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1470000000</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1536000000</v>
-      </c>
-      <c r="P51" s="1">
-        <v>2138000000</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>4193000000</v>
+        <v>42</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1">
-        <v>12529000</v>
+        <v>531000</v>
       </c>
       <c r="C52" s="1">
-        <v>20272000</v>
+        <v>1479000</v>
       </c>
       <c r="D52" s="1">
-        <v>29865000</v>
+        <v>6330000</v>
       </c>
       <c r="E52" s="1">
-        <v>150196000</v>
+        <v>27597000</v>
       </c>
       <c r="F52" s="1">
-        <v>340610000</v>
+        <v>30439000</v>
       </c>
       <c r="G52" s="1">
-        <v>589421000</v>
+        <v>12854000</v>
       </c>
       <c r="H52" s="1">
-        <v>1150991000</v>
+        <v>16142000</v>
       </c>
       <c r="I52" s="1">
-        <v>2650594000</v>
+        <v>54583000</v>
       </c>
       <c r="J52" s="1">
-        <v>5300892000</v>
+        <v>106155000</v>
       </c>
       <c r="K52" s="1">
-        <v>16404280000</v>
+        <v>991218000</v>
       </c>
       <c r="L52" s="1">
-        <v>22084852000</v>
+        <v>1171497000</v>
       </c>
       <c r="M52" s="1">
-        <v>21433306000</v>
+        <v>1391424000</v>
       </c>
       <c r="N52" s="1">
-        <v>22206000000</v>
+        <v>1470000000</v>
       </c>
       <c r="O52" s="1">
-        <v>25431000000</v>
+        <v>1536000000</v>
       </c>
       <c r="P52" s="1">
-        <v>35031000000</v>
+        <v>2138000000</v>
       </c>
       <c r="Q52" s="1">
-        <v>41421000000</v>
+        <v>4193000000</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1">
+        <v>12529000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20272000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>29865000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>150196000</v>
+      </c>
+      <c r="F53" s="1">
+        <v>340610000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>589421000</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1150991000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>2650594000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>5300892000</v>
+      </c>
+      <c r="K53" s="1">
+        <v>16404280000</v>
+      </c>
+      <c r="L53" s="1">
+        <v>22084852000</v>
+      </c>
+      <c r="M53" s="1">
+        <v>21433306000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>22206000000</v>
+      </c>
+      <c r="O53" s="1">
+        <v>25431000000</v>
+      </c>
+      <c r="P53" s="1">
+        <v>35031000000</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>41421000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1">
         <v>1000</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="H54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B55" s="11">
         <v>34837000</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C55" s="11">
         <v>51699000</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>130424000</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>386082000</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>713448000</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>1114190000</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H55" s="11">
         <v>2416930000</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I55" s="11">
         <v>5849251000</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J55" s="11">
         <v>8092460000</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K55" s="11">
         <v>22664076000</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L55" s="11">
         <v>28655372000</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M55" s="11">
         <v>29739614000</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N55" s="11">
         <v>34309000000</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O55" s="11">
         <v>52148000000</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P55" s="11">
         <v>62131000000</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q55" s="11">
         <v>82338000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="1">
-        <v>5369000</v>
-      </c>
-      <c r="C55" s="1">
-        <v>14184000</v>
-      </c>
-      <c r="D55" s="1">
-        <v>15086000</v>
-      </c>
-      <c r="E55" s="1">
-        <v>28951000</v>
-      </c>
-      <c r="F55" s="1">
-        <v>56141000</v>
-      </c>
-      <c r="G55" s="1">
-        <v>303382000</v>
-      </c>
-      <c r="H55" s="1">
-        <v>303969000</v>
-      </c>
-      <c r="I55" s="1">
-        <v>777946000</v>
-      </c>
-      <c r="J55" s="1">
-        <v>916148000</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1860341000</v>
-      </c>
-      <c r="L55" s="1">
-        <v>2390250000</v>
-      </c>
-      <c r="M55" s="1">
-        <v>3404451000</v>
-      </c>
-      <c r="N55" s="1">
-        <v>3771000000</v>
-      </c>
-      <c r="O55" s="1">
-        <v>6051000000</v>
-      </c>
-      <c r="P55" s="1">
-        <v>10025000000</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>15255000000</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="1">
-        <v>80000</v>
+        <v>5369000</v>
       </c>
       <c r="C56" s="1">
-        <v>341000</v>
+        <v>14184000</v>
       </c>
       <c r="D56" s="1">
-        <v>290000</v>
+        <v>15086000</v>
       </c>
       <c r="E56" s="1">
-        <v>279000</v>
+        <v>28951000</v>
       </c>
       <c r="F56" s="1">
-        <v>8983000</v>
+        <v>56141000</v>
       </c>
       <c r="G56" s="1">
-        <v>55206000</v>
+        <v>303382000</v>
       </c>
       <c r="H56" s="1">
-        <v>7904000</v>
+        <v>303969000</v>
       </c>
       <c r="I56" s="1">
-        <v>632128000</v>
+        <v>777946000</v>
       </c>
       <c r="J56" s="1">
-        <v>633166000</v>
+        <v>916148000</v>
       </c>
       <c r="K56" s="1">
-        <v>1202178000</v>
+        <v>1860341000</v>
       </c>
       <c r="L56" s="1">
-        <v>963862000</v>
+        <v>2390250000</v>
       </c>
       <c r="M56" s="1">
-        <v>2711199000</v>
+        <v>3404451000</v>
       </c>
       <c r="N56" s="1">
-        <v>2070000000</v>
+        <v>3771000000</v>
       </c>
       <c r="O56" s="1">
-        <v>2418000000</v>
+        <v>6051000000</v>
       </c>
       <c r="P56" s="1">
-        <v>1957000000</v>
+        <v>10025000000</v>
       </c>
       <c r="Q56" s="1">
-        <v>1502000000</v>
+        <v>15255000000</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="B57" s="1">
+        <v>80000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>341000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>290000</v>
       </c>
       <c r="E57" s="1">
-        <v>2674000</v>
+        <v>279000</v>
       </c>
       <c r="F57" s="1">
-        <v>967000</v>
+        <v>8983000</v>
       </c>
       <c r="G57" s="1">
-        <v>9710000</v>
+        <v>55206000</v>
       </c>
       <c r="H57" s="1">
-        <v>38067000</v>
+        <v>7904000</v>
       </c>
       <c r="I57" s="1">
-        <v>71229000</v>
+        <v>632128000</v>
       </c>
       <c r="J57" s="1">
-        <v>101206000</v>
+        <v>633166000</v>
       </c>
       <c r="K57" s="1">
-        <v>152897000</v>
+        <v>1202178000</v>
       </c>
       <c r="L57" s="1">
-        <v>185807000</v>
+        <v>963862000</v>
       </c>
       <c r="M57" s="1">
-        <v>348663000</v>
+        <v>2711199000</v>
       </c>
       <c r="N57" s="1">
-        <v>611000000</v>
+        <v>2070000000</v>
       </c>
       <c r="O57" s="1">
-        <v>777000000</v>
+        <v>2418000000</v>
       </c>
       <c r="P57" s="1">
-        <v>1122000000</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>1957000000</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1502000000</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="1">
-        <v>4073000</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1377000</v>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E58" s="1">
-        <v>4635000</v>
+        <v>2674000</v>
       </c>
       <c r="F58" s="1">
-        <v>2345000</v>
+        <v>967000</v>
       </c>
       <c r="G58" s="1">
-        <v>140722000</v>
+        <v>9710000</v>
       </c>
       <c r="H58" s="1">
-        <v>255035000</v>
+        <v>38067000</v>
       </c>
       <c r="I58" s="1">
-        <v>449238000</v>
+        <v>71229000</v>
       </c>
       <c r="J58" s="1">
-        <v>707331000</v>
+        <v>101206000</v>
       </c>
       <c r="K58" s="1">
-        <v>1426985000</v>
+        <v>152897000</v>
       </c>
       <c r="L58" s="1">
-        <v>1869172000</v>
+        <v>185807000</v>
       </c>
       <c r="M58" s="1">
-        <v>1422893000</v>
+        <v>348663000</v>
       </c>
       <c r="N58" s="1">
-        <v>1889000000</v>
+        <v>611000000</v>
       </c>
       <c r="O58" s="1">
-        <v>2210000000</v>
+        <v>777000000</v>
       </c>
       <c r="P58" s="1">
-        <v>2372000000</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>2810000000</v>
+        <v>1122000000</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4073000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1377000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4635000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2345000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>140722000</v>
+      </c>
+      <c r="H59" s="1">
+        <v>255035000</v>
+      </c>
+      <c r="I59" s="1">
+        <v>449238000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>707331000</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1426985000</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1869172000</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1422893000</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1889000000</v>
+      </c>
+      <c r="O59" s="1">
+        <v>2210000000</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2372000000</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>2810000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B60" s="1">
         <v>45847000</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C60" s="1">
         <v>69337000</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <v>40736000</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <v>49026000</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F60" s="1">
         <v>122903000</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G60" s="1">
         <v>30088000</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H60" s="1">
         <v>70185000</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I60" s="1">
         <v>176625000</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <v>458423000</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K60" s="1">
         <v>1184604000</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L60" s="1">
         <v>2265579000</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M60" s="1">
         <v>2104930000</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <v>2326000000</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O60" s="1">
         <v>2792000000</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P60" s="1">
         <v>4229000000</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q60" s="1">
         <v>7142000000</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B61" s="10">
         <v>51296000</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C61" s="10">
         <v>87935000</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>57489000</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>85565000</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>191339000</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>539108000</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H61" s="10">
         <v>675160000</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>2107166000</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J61" s="10">
         <v>2816274000</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K61" s="10">
         <v>5827005000</v>
       </c>
-      <c r="L60" s="10">
+      <c r="L61" s="10">
         <v>7674670000</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M61" s="10">
         <v>9992136000</v>
       </c>
-      <c r="N60" s="10">
+      <c r="N61" s="10">
         <v>10667000000</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O61" s="10">
         <v>14248000000</v>
       </c>
-      <c r="P60" s="10">
+      <c r="P61" s="10">
         <v>19705000000</v>
       </c>
-      <c r="Q60" s="10">
+      <c r="Q61" s="10">
         <v>26709000000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C61" s="1">
-        <v>55416000</v>
-      </c>
-      <c r="D61" s="1">
-        <v>800000</v>
-      </c>
-      <c r="E61" s="1">
-        <v>72324000</v>
-      </c>
-      <c r="F61" s="1">
-        <v>271165000</v>
-      </c>
-      <c r="G61" s="1">
-        <v>411460000</v>
-      </c>
-      <c r="H61" s="1">
-        <v>598974000</v>
-      </c>
-      <c r="I61" s="1">
-        <v>1876981000</v>
-      </c>
-      <c r="J61" s="1">
-        <v>2082420000</v>
-      </c>
-      <c r="K61" s="1">
-        <v>7385937000</v>
-      </c>
-      <c r="L61" s="1">
-        <v>11152086000</v>
-      </c>
-      <c r="M61" s="1">
-        <v>11116072000</v>
-      </c>
-      <c r="N61" s="1">
-        <v>12627000000</v>
-      </c>
-      <c r="O61" s="1">
-        <v>10861000000</v>
-      </c>
-      <c r="P61" s="1">
-        <v>6916000000</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>1597000000</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="B62" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>55416000</v>
       </c>
       <c r="D62" s="1">
-        <v>1240000</v>
+        <v>800000</v>
       </c>
       <c r="E62" s="1">
-        <v>2783000</v>
+        <v>72324000</v>
       </c>
       <c r="F62" s="1">
-        <v>3146000</v>
+        <v>271165000</v>
       </c>
       <c r="G62" s="1">
-        <v>3060000</v>
+        <v>411460000</v>
       </c>
       <c r="H62" s="1">
-        <v>181180000</v>
+        <v>598974000</v>
       </c>
       <c r="I62" s="1">
-        <v>292271000</v>
+        <v>1876981000</v>
       </c>
       <c r="J62" s="1">
-        <v>446105000</v>
+        <v>2082420000</v>
       </c>
       <c r="K62" s="1">
-        <v>851790000</v>
+        <v>7385937000</v>
       </c>
       <c r="L62" s="1">
-        <v>1177799000</v>
+        <v>11152086000</v>
       </c>
       <c r="M62" s="1">
-        <v>990873000</v>
+        <v>11116072000</v>
       </c>
       <c r="N62" s="1">
-        <v>1207000000</v>
+        <v>12627000000</v>
       </c>
       <c r="O62" s="1">
-        <v>1284000000</v>
+        <v>10861000000</v>
       </c>
       <c r="P62" s="1">
-        <v>2052000000</v>
+        <v>6916000000</v>
       </c>
       <c r="Q62" s="1">
-        <v>2804000000</v>
+        <v>1597000000</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
@@ -6020,1226 +6175,1226 @@
       <c r="C63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>92</v>
+      <c r="D63" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2783000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3146000</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3060000</v>
       </c>
       <c r="H63" s="1">
-        <v>6821000</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>181180000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>292271000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>446105000</v>
+      </c>
+      <c r="K63" s="1">
+        <v>851790000</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1177799000</v>
+      </c>
+      <c r="M63" s="1">
+        <v>990873000</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1207000000</v>
       </c>
       <c r="O63" s="1">
-        <v>151000000</v>
+        <v>1284000000</v>
       </c>
       <c r="P63" s="1">
-        <v>24000000</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>2052000000</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>2804000000</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B64" s="1">
-        <v>101369000</v>
-      </c>
-      <c r="C64" s="1">
-        <v>108062000</v>
-      </c>
-      <c r="D64" s="1">
-        <v>324418000</v>
-      </c>
-      <c r="E64" s="1">
-        <v>18362000</v>
-      </c>
-      <c r="F64" s="1">
-        <v>23753000</v>
-      </c>
-      <c r="G64" s="1">
-        <v>35862000</v>
+        <v>54</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H64" s="1">
-        <v>287675000</v>
-      </c>
-      <c r="I64" s="1">
-        <v>661123000</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1658717000</v>
-      </c>
-      <c r="K64" s="1">
-        <v>2694219000</v>
-      </c>
-      <c r="L64" s="1">
-        <v>3018495000</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1326929000</v>
-      </c>
-      <c r="N64" s="1">
-        <v>1698000000</v>
+        <v>6821000</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="O64" s="1">
-        <v>1925000000</v>
+        <v>151000000</v>
       </c>
       <c r="P64" s="1">
-        <v>1851000000</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>6115000000</v>
+        <v>24000000</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1">
-        <v>101387000</v>
+        <v>101369000</v>
       </c>
       <c r="C65" s="1">
-        <v>163478000</v>
+        <v>108062000</v>
       </c>
       <c r="D65" s="1">
-        <v>326458000</v>
+        <v>324418000</v>
       </c>
       <c r="E65" s="1">
-        <v>93469000</v>
+        <v>18362000</v>
       </c>
       <c r="F65" s="1">
-        <v>298064000</v>
+        <v>23753000</v>
       </c>
       <c r="G65" s="1">
-        <v>450382000</v>
+        <v>35862000</v>
       </c>
       <c r="H65" s="1">
-        <v>1074650000</v>
+        <v>287675000</v>
       </c>
       <c r="I65" s="1">
-        <v>2830375000</v>
+        <v>661123000</v>
       </c>
       <c r="J65" s="1">
-        <v>4187242000</v>
+        <v>1658717000</v>
       </c>
       <c r="K65" s="1">
-        <v>10931946000</v>
+        <v>2694219000</v>
       </c>
       <c r="L65" s="1">
-        <v>15348380000</v>
+        <v>3018495000</v>
       </c>
       <c r="M65" s="1">
-        <v>13433874000</v>
+        <v>1326929000</v>
       </c>
       <c r="N65" s="1">
-        <v>15532000000</v>
+        <v>1698000000</v>
       </c>
       <c r="O65" s="1">
-        <v>14221000000</v>
+        <v>1925000000</v>
       </c>
       <c r="P65" s="1">
-        <v>10843000000</v>
+        <v>1851000000</v>
       </c>
       <c r="Q65" s="1">
-        <v>10516000000</v>
+        <v>6115000000</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1">
+        <v>101387000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>163478000</v>
+      </c>
+      <c r="D66" s="1">
+        <v>326458000</v>
+      </c>
+      <c r="E66" s="1">
+        <v>93469000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>298064000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>450382000</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1074650000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2830375000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4187242000</v>
+      </c>
+      <c r="K66" s="1">
+        <v>10931946000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>15348380000</v>
+      </c>
+      <c r="M66" s="1">
+        <v>13433874000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>15532000000</v>
+      </c>
+      <c r="O66" s="1">
+        <v>14221000000</v>
+      </c>
+      <c r="P66" s="1">
+        <v>10843000000</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>10516000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B68" s="10">
         <v>152683000</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C68" s="10">
         <v>251413000</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>383947000</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>179034000</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>489403000</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>989490000</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>1749810000</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>4937541000</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>7003516000</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>16758951000</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L68" s="10">
         <v>23023050000</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <v>23426010000</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N68" s="10">
         <v>26199000000</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O68" s="10">
         <v>28469000000</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P68" s="10">
         <v>30548000000</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q68" s="10">
         <v>37225000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="1">
-        <v>18000</v>
-      </c>
-      <c r="C68" s="1">
-        <v>21000</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7000</v>
-      </c>
-      <c r="E68" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F68" s="1">
-        <v>104000</v>
-      </c>
-      <c r="G68" s="1">
-        <v>115000</v>
-      </c>
-      <c r="H68" s="1">
-        <v>123000</v>
-      </c>
-      <c r="I68" s="1">
-        <v>126000</v>
-      </c>
-      <c r="J68" s="1">
-        <v>131000</v>
-      </c>
-      <c r="K68" s="1">
-        <v>161000</v>
-      </c>
-      <c r="L68" s="1">
-        <v>169000</v>
-      </c>
-      <c r="M68" s="1">
-        <v>173000</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O68" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="P68" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>3000000</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1">
-        <v>-122132000</v>
+        <v>18000</v>
       </c>
       <c r="C69" s="1">
-        <v>-204914000</v>
+        <v>21000</v>
       </c>
       <c r="D69" s="1">
-        <v>-260654000</v>
+        <v>7000</v>
       </c>
       <c r="E69" s="1">
-        <v>-414982000</v>
+        <v>95000</v>
       </c>
       <c r="F69" s="1">
-        <v>-669392000</v>
+        <v>104000</v>
       </c>
       <c r="G69" s="1">
-        <v>-1065606000</v>
+        <v>115000</v>
       </c>
       <c r="H69" s="1">
-        <v>-1139620000</v>
+        <v>123000</v>
       </c>
       <c r="I69" s="1">
-        <v>-1433682000</v>
+        <v>126000</v>
       </c>
       <c r="J69" s="1">
-        <v>-2322323000</v>
+        <v>131000</v>
       </c>
       <c r="K69" s="1">
-        <v>-2997237000</v>
+        <v>161000</v>
       </c>
       <c r="L69" s="1">
-        <v>-4974299000</v>
+        <v>169000</v>
       </c>
       <c r="M69" s="1">
-        <v>-5317832000</v>
-      </c>
-      <c r="N69" s="1">
-        <v>-6083000000</v>
+        <v>173000</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="O69" s="1">
-        <v>-5399000000</v>
+        <v>1000000</v>
       </c>
       <c r="P69" s="1">
-        <v>331000000</v>
+        <v>1000000</v>
       </c>
       <c r="Q69" s="1">
-        <v>12885000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-122132000</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-204914000</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-260654000</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-414982000</v>
       </c>
       <c r="F70" s="1">
-        <v>-3000</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>-669392000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-1065606000</v>
+      </c>
+      <c r="H70" s="1">
+        <v>-1139620000</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-1433682000</v>
       </c>
       <c r="J70" s="1">
-        <v>-3556000</v>
+        <v>-2322323000</v>
       </c>
       <c r="K70" s="1">
-        <v>-23740000</v>
+        <v>-2997237000</v>
       </c>
       <c r="L70" s="1">
-        <v>33348000</v>
+        <v>-4974299000</v>
       </c>
       <c r="M70" s="1">
-        <v>-8218000</v>
+        <v>-5317832000</v>
       </c>
       <c r="N70" s="1">
-        <v>-36000000</v>
+        <v>-6083000000</v>
       </c>
       <c r="O70" s="1">
-        <v>363000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="P70" s="1">
-        <v>54000000</v>
+        <v>331000000</v>
       </c>
       <c r="Q70" s="1">
-        <v>-361000000</v>
+        <v>12885000000</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J71" s="1">
+        <v>-3556000</v>
+      </c>
+      <c r="K71" s="1">
+        <v>-23740000</v>
+      </c>
+      <c r="L71" s="1">
+        <v>33348000</v>
+      </c>
+      <c r="M71" s="1">
+        <v>-8218000</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-36000000</v>
+      </c>
+      <c r="O71" s="1">
+        <v>363000000</v>
+      </c>
+      <c r="P71" s="1">
+        <v>54000000</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>-361000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="1">
         <v>4268000</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>5179000</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D72" s="1">
         <v>7124000</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E72" s="1">
         <v>621935000</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F72" s="1">
         <v>893336000</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G72" s="1">
         <v>1190191000</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H72" s="1">
         <v>1806617000</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I72" s="1">
         <v>2345266000</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J72" s="1">
         <v>3414692000</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K72" s="1">
         <v>7773727000</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>9178024000</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M72" s="1">
         <v>10249120000</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N72" s="1">
         <v>12737000000</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O72" s="1">
         <v>27260000000</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P72" s="1">
         <v>29803000000</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q72" s="1">
         <v>32177000000</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B73" s="10">
         <v>-117846000</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C73" s="10">
         <v>-199714000</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>-253523000</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>207048000</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>224045000</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>124700000</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H73" s="10">
         <v>667120000</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>911710000</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J73" s="10">
         <v>1088944000</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K73" s="10">
         <v>4752911000</v>
       </c>
-      <c r="L72" s="10">
+      <c r="L73" s="10">
         <v>4237242000</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M73" s="10">
         <v>4923243000</v>
       </c>
-      <c r="N72" s="10">
+      <c r="N73" s="10">
         <v>6618000000</v>
       </c>
-      <c r="O72" s="10">
+      <c r="O73" s="10">
         <v>22225000000</v>
       </c>
-      <c r="P72" s="10">
+      <c r="P73" s="10">
         <v>30189000000</v>
       </c>
-      <c r="Q72" s="10">
+      <c r="Q73" s="10">
         <v>44704000000</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B74" s="11">
         <v>34837000</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C74" s="11">
         <v>51699000</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>130424000</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>386082000</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>713448000</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>1114190000</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H74" s="11">
         <v>2416930000</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I74" s="11">
         <v>5849251000</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J74" s="11">
         <v>8092460000</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K74" s="11">
         <v>21511862000</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L74" s="11">
         <v>27260292000</v>
       </c>
-      <c r="M73" s="11">
+      <c r="M74" s="11">
         <v>28349253000</v>
       </c>
-      <c r="N73" s="11">
+      <c r="N74" s="11">
         <v>32817000000</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>50694000000</v>
       </c>
-      <c r="P73" s="11">
+      <c r="P74" s="11">
         <v>60737000000</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q74" s="11">
         <v>81929000000</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="13" t="s">
+      <c r="L75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="13" t="s">
+      <c r="M75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N74" s="13" t="s">
+      <c r="N75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O74" s="13" t="s">
+      <c r="O75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P74" s="13" t="s">
+      <c r="P75" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q74" s="13" t="s">
+      <c r="Q75" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="M76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O75" s="9" t="s">
+      <c r="O76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P75" s="9" t="s">
+      <c r="P76" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="Q76" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="1">
-        <v>-78157000</v>
-      </c>
-      <c r="C76" s="1">
-        <v>-82782000</v>
-      </c>
-      <c r="D76" s="1">
-        <v>-55740000</v>
-      </c>
-      <c r="E76" s="1">
-        <v>-154328000</v>
-      </c>
-      <c r="F76" s="1">
-        <v>-254411000</v>
-      </c>
-      <c r="G76" s="1">
-        <v>-396213000</v>
-      </c>
-      <c r="H76" s="1">
-        <v>-74014000</v>
-      </c>
-      <c r="I76" s="1">
-        <v>-294040000</v>
-      </c>
-      <c r="J76" s="1">
-        <v>-888663000</v>
-      </c>
-      <c r="K76" s="1">
-        <v>-773046000</v>
-      </c>
-      <c r="L76" s="1">
-        <v>-2240578000</v>
-      </c>
-      <c r="M76" s="1">
-        <v>-1062582000</v>
-      </c>
-      <c r="N76" s="1">
-        <v>-775000000</v>
-      </c>
-      <c r="O76" s="1">
-        <v>862000000</v>
-      </c>
-      <c r="P76" s="1">
-        <v>5644000000</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>12587000000</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1">
-        <v>2895000</v>
+        <v>-78157000</v>
       </c>
       <c r="C77" s="1">
-        <v>4157000</v>
+        <v>-82782000</v>
       </c>
       <c r="D77" s="1">
-        <v>6940000</v>
+        <v>-55740000</v>
       </c>
       <c r="E77" s="1">
-        <v>10623000</v>
+        <v>-154328000</v>
       </c>
       <c r="F77" s="1">
-        <v>16919000</v>
+        <v>-254411000</v>
       </c>
       <c r="G77" s="1">
-        <v>28825000</v>
+        <v>-396213000</v>
       </c>
       <c r="H77" s="1">
-        <v>106083000</v>
+        <v>-74014000</v>
       </c>
       <c r="I77" s="1">
-        <v>231931000</v>
+        <v>-294040000</v>
       </c>
       <c r="J77" s="1">
-        <v>422590000</v>
+        <v>-888663000</v>
       </c>
       <c r="K77" s="1">
-        <v>947099000</v>
+        <v>-773046000</v>
       </c>
       <c r="L77" s="1">
-        <v>1636003000</v>
+        <v>-2240578000</v>
       </c>
       <c r="M77" s="1">
-        <v>1901050000</v>
+        <v>-1062582000</v>
       </c>
       <c r="N77" s="1">
-        <v>2154000000</v>
+        <v>-775000000</v>
       </c>
       <c r="O77" s="1">
-        <v>2322000000</v>
+        <v>862000000</v>
       </c>
       <c r="P77" s="1">
-        <v>2911000000</v>
+        <v>5644000000</v>
       </c>
       <c r="Q77" s="1">
-        <v>3747000000</v>
+        <v>12587000000</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2895000</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4157000</v>
+      </c>
+      <c r="D78" s="1">
+        <v>6940000</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10623000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>16919000</v>
+      </c>
+      <c r="G78" s="1">
+        <v>28825000</v>
+      </c>
+      <c r="H78" s="1">
+        <v>106083000</v>
+      </c>
+      <c r="I78" s="1">
+        <v>231931000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>422590000</v>
+      </c>
+      <c r="K78" s="1">
+        <v>947099000</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1636003000</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1901050000</v>
+      </c>
+      <c r="N78" s="1">
+        <v>2154000000</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2322000000</v>
+      </c>
+      <c r="P78" s="1">
+        <v>2911000000</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>3747000000</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B80" s="1">
         <v>198000</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C80" s="1">
         <v>437000</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>1434000</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E80" s="1">
         <v>21156000</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F80" s="1">
         <v>29419000</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G80" s="1">
         <v>50145000</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H80" s="1">
         <v>80737000</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I80" s="1">
         <v>156496000</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J80" s="1">
         <v>197999000</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K80" s="1">
         <v>334225000</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <v>466760000</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M80" s="1">
         <v>749024000</v>
       </c>
-      <c r="N79" s="1">
+      <c r="N80" s="1">
         <v>898000000</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O80" s="1">
         <v>1734000000</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P80" s="1">
         <v>2121000000</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q80" s="1">
         <v>1560000000</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="15">
-        <f>B79/B3</f>
+      <c r="B81" s="15">
+        <f>B80/B4</f>
         <v>2.7123287671232879</v>
       </c>
-      <c r="C80" s="15">
-        <f>C79/C3</f>
+      <c r="C81" s="15">
+        <f>C80/C4</f>
         <v>2.9643196309862976E-2</v>
       </c>
-      <c r="D80" s="15">
-        <f t="shared" ref="D80:Q80" si="55">D79/D3</f>
+      <c r="D81" s="15">
+        <f t="shared" ref="D81:Q81" si="55">D80/D4</f>
         <v>1.2810090849807491E-2</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <f t="shared" si="55"/>
         <v>0.1812170218597958</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <f t="shared" si="55"/>
         <v>0.14403991343602196</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="15">
         <f t="shared" si="55"/>
         <v>0.12134125094372496</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H81" s="15">
         <f t="shared" si="55"/>
         <v>4.0097919240961989E-2</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I81" s="15">
         <f t="shared" si="55"/>
         <v>4.8930137858324715E-2</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J81" s="15">
         <f t="shared" si="55"/>
         <v>4.8936672413047375E-2</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="15">
         <f t="shared" si="55"/>
         <v>4.7745528227182005E-2</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L81" s="15">
         <f t="shared" si="55"/>
         <v>3.9694692063808476E-2</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M81" s="15">
         <f t="shared" si="55"/>
         <v>3.4901199686803219E-2</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N81" s="15">
         <f t="shared" si="55"/>
         <v>3.6536740174139472E-2</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O81" s="15">
         <f t="shared" si="55"/>
         <v>5.498477929984779E-2</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P81" s="15">
         <f t="shared" si="55"/>
         <v>3.9406944986344131E-2</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q81" s="15">
         <f t="shared" si="55"/>
         <v>1.9150033144288134E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="1">
-        <v>19210000</v>
-      </c>
-      <c r="C81" s="1">
-        <v>20529000</v>
-      </c>
-      <c r="D81" s="1">
-        <v>-37543000</v>
-      </c>
-      <c r="E81" s="1">
-        <v>-11175000</v>
-      </c>
-      <c r="F81" s="1">
-        <v>88897000</v>
-      </c>
-      <c r="G81" s="1">
-        <v>42819000</v>
-      </c>
-      <c r="H81" s="1">
-        <v>124995000</v>
-      </c>
-      <c r="I81" s="1">
-        <v>-256825000</v>
-      </c>
-      <c r="J81" s="1">
-        <v>-493289000</v>
-      </c>
-      <c r="K81" s="1">
-        <v>-693861000</v>
-      </c>
-      <c r="L81" s="1">
-        <v>-496603000</v>
-      </c>
-      <c r="M81" s="1">
-        <v>57951000</v>
-      </c>
-      <c r="N81" s="1">
-        <v>-349000000</v>
-      </c>
-      <c r="O81" s="1">
-        <v>184000000</v>
-      </c>
-      <c r="P81" s="1">
-        <v>518000000</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>-3170000000</v>
-      </c>
-    </row>
     <row r="82" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1">
-        <v>-59000</v>
+        <v>19210000</v>
       </c>
       <c r="C82" s="1">
-        <v>-3261000</v>
+        <v>20529000</v>
       </c>
       <c r="D82" s="1">
-        <v>-168000</v>
+        <v>-37543000</v>
       </c>
       <c r="E82" s="1">
-        <v>-3222000</v>
+        <v>-11175000</v>
       </c>
       <c r="F82" s="1">
-        <v>-2829000</v>
+        <v>88897000</v>
       </c>
       <c r="G82" s="1">
-        <v>-17303000</v>
+        <v>42819000</v>
       </c>
       <c r="H82" s="1">
-        <v>-21917000</v>
+        <v>124995000</v>
       </c>
       <c r="I82" s="1">
-        <v>-183658000</v>
+        <v>-256825000</v>
       </c>
       <c r="J82" s="1">
-        <v>46267000</v>
+        <v>-493289000</v>
       </c>
       <c r="K82" s="1">
-        <v>-216565000</v>
+        <v>-693861000</v>
       </c>
       <c r="L82" s="1">
-        <v>-24635000</v>
+        <v>-496603000</v>
       </c>
       <c r="M82" s="1">
-        <v>-496732000</v>
+        <v>57951000</v>
       </c>
       <c r="N82" s="1">
-        <v>-367000000</v>
+        <v>-349000000</v>
       </c>
       <c r="O82" s="1">
-        <v>-652000000</v>
+        <v>184000000</v>
       </c>
       <c r="P82" s="1">
-        <v>-130000000</v>
+        <v>518000000</v>
       </c>
       <c r="Q82" s="1">
-        <v>-1124000000</v>
+        <v>-3170000000</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1">
-        <v>-2108000</v>
+        <v>-59000</v>
       </c>
       <c r="C83" s="1">
-        <v>-14542000</v>
+        <v>-3261000</v>
       </c>
       <c r="D83" s="1">
-        <v>-7925000</v>
+        <v>-168000</v>
       </c>
       <c r="E83" s="1">
-        <v>-20115000</v>
+        <v>-3222000</v>
       </c>
       <c r="F83" s="1">
-        <v>-13638000</v>
+        <v>-2829000</v>
       </c>
       <c r="G83" s="1">
-        <v>-194726000</v>
+        <v>-17303000</v>
       </c>
       <c r="H83" s="1">
-        <v>-463270000</v>
+        <v>-21917000</v>
       </c>
       <c r="I83" s="1">
-        <v>-1050264000</v>
+        <v>-183658000</v>
       </c>
       <c r="J83" s="1">
-        <v>-1573860000</v>
+        <v>46267000</v>
       </c>
       <c r="K83" s="1">
-        <v>-2465703000</v>
+        <v>-216565000</v>
       </c>
       <c r="L83" s="1">
-        <v>-178850000</v>
+        <v>-24635000</v>
       </c>
       <c r="M83" s="1">
-        <v>-1023264000</v>
+        <v>-496732000</v>
       </c>
       <c r="N83" s="1">
-        <v>-429000000</v>
+        <v>-367000000</v>
       </c>
       <c r="O83" s="1">
-        <v>-422000000</v>
+        <v>-652000000</v>
       </c>
       <c r="P83" s="1">
-        <v>-1709000000</v>
+        <v>-130000000</v>
       </c>
       <c r="Q83" s="1">
-        <v>-6465000000</v>
+        <v>-1124000000</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B84" s="1">
-        <v>523000</v>
+        <v>-2108000</v>
       </c>
       <c r="C84" s="1">
-        <v>8815000</v>
+        <v>-14542000</v>
       </c>
       <c r="D84" s="1">
-        <v>902000</v>
+        <v>-7925000</v>
       </c>
       <c r="E84" s="1">
-        <v>-212000</v>
+        <v>-20115000</v>
       </c>
       <c r="F84" s="1">
-        <v>31859000</v>
+        <v>-13638000</v>
       </c>
       <c r="G84" s="1">
-        <v>187821000</v>
+        <v>-194726000</v>
       </c>
       <c r="H84" s="1">
-        <v>-243000</v>
+        <v>-463270000</v>
       </c>
       <c r="I84" s="1">
-        <v>252781000</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>-1050264000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>-1573860000</v>
+      </c>
+      <c r="K84" s="1">
+        <v>-2465703000</v>
+      </c>
+      <c r="L84" s="1">
+        <v>-178850000</v>
+      </c>
+      <c r="M84" s="1">
+        <v>-1023264000</v>
+      </c>
+      <c r="N84" s="1">
+        <v>-429000000</v>
+      </c>
+      <c r="O84" s="1">
+        <v>-422000000</v>
+      </c>
+      <c r="P84" s="1">
+        <v>-1709000000</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>-6465000000</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B85" s="1">
-        <v>-64000</v>
+        <v>523000</v>
       </c>
       <c r="C85" s="1">
-        <v>5277000</v>
+        <v>8815000</v>
       </c>
       <c r="D85" s="1">
-        <v>291000</v>
+        <v>902000</v>
       </c>
       <c r="E85" s="1">
-        <v>4006000</v>
+        <v>-212000</v>
       </c>
       <c r="F85" s="1">
-        <v>61432000</v>
+        <v>31859000</v>
       </c>
       <c r="G85" s="1">
-        <v>46530000</v>
+        <v>187821000</v>
       </c>
       <c r="H85" s="1">
-        <v>292396000</v>
+        <v>-243000</v>
       </c>
       <c r="I85" s="1">
-        <v>315911000</v>
-      </c>
-      <c r="J85" s="1">
-        <v>358924000</v>
-      </c>
-      <c r="K85" s="1">
-        <v>774791000</v>
-      </c>
-      <c r="L85" s="1">
-        <v>623476000</v>
-      </c>
-      <c r="M85" s="1">
-        <v>102567000</v>
-      </c>
-      <c r="N85" s="1">
-        <v>743000000</v>
-      </c>
-      <c r="O85" s="1">
-        <v>328000000</v>
-      </c>
-      <c r="P85" s="1">
-        <v>979000000</v>
+        <v>252781000</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>92</v>
@@ -7247,288 +7402,288 @@
     </row>
     <row r="86" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="1">
+        <v>-64000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5277000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>291000</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4006000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>61432000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>46530000</v>
+      </c>
+      <c r="H86" s="1">
+        <v>292396000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>315911000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>358924000</v>
+      </c>
+      <c r="K86" s="1">
+        <v>774791000</v>
+      </c>
+      <c r="L86" s="1">
+        <v>623476000</v>
+      </c>
+      <c r="M86" s="1">
+        <v>102567000</v>
+      </c>
+      <c r="N86" s="1">
+        <v>743000000</v>
+      </c>
+      <c r="O86" s="1">
+        <v>328000000</v>
+      </c>
+      <c r="P86" s="1">
+        <v>979000000</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B87" s="1">
         <v>2385000</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
         <v>5247000</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D87" s="1">
         <v>4084000</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E87" s="1">
         <v>5907000</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>4812000</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G87" s="1">
         <v>8343000</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H87" s="1">
         <v>20193000</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I87" s="1">
         <v>105101000</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J87" s="1">
         <v>236864000</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K87" s="1">
         <v>61754000</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>573764000</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M87" s="1">
         <v>452359000</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N87" s="1">
         <v>477000000</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O87" s="1">
         <v>841000000</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P87" s="1">
         <v>303000000</v>
       </c>
-      <c r="Q86" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="Q87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B88" s="10">
         <v>-53469000</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C88" s="10">
         <v>-52412000</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>-80825000</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>-127817000</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>-114364000</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>-266081000</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>257994000</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>-57337000</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>-524499000</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-123829000</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L88" s="10">
         <v>-60654000</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <v>2097802000</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N88" s="10">
         <v>2405000000</v>
       </c>
-      <c r="O87" s="10">
+      <c r="O88" s="10">
         <v>5943000000</v>
       </c>
-      <c r="P87" s="10">
+      <c r="P88" s="10">
         <v>11497000000</v>
       </c>
-      <c r="Q87" s="10">
+      <c r="Q88" s="10">
         <v>14724000000</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="89" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B89" s="1">
         <v>-9802000</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C89" s="1">
         <v>-9630000</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D89" s="1">
         <v>-11884000</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E89" s="1">
         <v>-40203000</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F89" s="1">
         <v>-197896000</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G89" s="1">
         <v>-239228000</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="1">
         <v>-264224000</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I89" s="1">
         <v>-969885000</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J89" s="1">
         <v>-1634850000</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K89" s="1">
         <v>-1440471000</v>
       </c>
-      <c r="L88" s="1">
+      <c r="L89" s="1">
         <v>-4081354000</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M89" s="1">
         <v>-2319516000</v>
       </c>
-      <c r="N88" s="1">
+      <c r="N89" s="1">
         <v>-1432000000</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O89" s="1">
         <v>-3232000000</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="1">
         <v>-6514000000</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q89" s="1">
         <v>-7163000000</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+    <row r="90" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="15">
-        <f>(-1*B88)/B3</f>
+      <c r="B90" s="15">
+        <f>(-1*B89)/B4</f>
         <v>134.27397260273972</v>
       </c>
-      <c r="C89" s="15">
-        <f t="shared" ref="C89:Q89" si="56">(-1*C88)/C3</f>
+      <c r="C90" s="15">
+        <f t="shared" ref="C90:Q90" si="56">(-1*C89)/C4</f>
         <v>0.65323565323565325</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="15">
         <f t="shared" si="56"/>
         <v>0.10616117131039904</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <f t="shared" si="56"/>
         <v>0.34436887548824779</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <f t="shared" si="56"/>
         <v>0.96892901557955757</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G90" s="15">
         <f t="shared" si="56"/>
         <v>0.57888572700698837</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H90" s="15">
         <f t="shared" si="56"/>
         <v>0.13122648368807288</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I90" s="15">
         <f t="shared" si="56"/>
         <v>0.303244854544022</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J90" s="15">
         <f t="shared" si="56"/>
         <v>0.4040632472612008</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <f t="shared" si="56"/>
         <v>0.2057776910492545</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L90" s="15">
         <f t="shared" si="56"/>
         <v>0.34709077520223025</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M90" s="15">
         <f t="shared" si="56"/>
         <v>0.10807916848156408</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N90" s="15">
         <f t="shared" si="56"/>
         <v>5.8263487671901704E-2</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O90" s="15">
         <f t="shared" si="56"/>
         <v>0.10248604769152714</v>
       </c>
-      <c r="P89" s="15">
+      <c r="P90" s="15">
         <f t="shared" si="56"/>
         <v>0.12102632703491073</v>
       </c>
-      <c r="Q89" s="15">
+      <c r="Q90" s="15">
         <f t="shared" si="56"/>
         <v>8.7930568854189678E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J90" s="1">
-        <v>-12260000</v>
-      </c>
-      <c r="K90" s="1">
-        <v>213523000</v>
-      </c>
-      <c r="L90" s="1">
-        <v>-114523000</v>
-      </c>
-      <c r="M90" s="1">
-        <v>-17912000</v>
-      </c>
-      <c r="N90" s="1">
-        <v>-45000000</v>
-      </c>
-      <c r="O90" s="1">
-        <v>-13000000</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="91" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>92</v>
@@ -7542,46 +7697,46 @@
       <c r="E91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F91" s="1">
-        <v>-64952000</v>
-      </c>
-      <c r="G91" s="1">
-        <v>-14992000</v>
+      <c r="F91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I91" s="1">
-        <v>-205841000</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P91" s="1">
-        <v>-132000000</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>-5835000000</v>
+      <c r="I91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-12260000</v>
+      </c>
+      <c r="K91" s="1">
+        <v>213523000</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-114523000</v>
+      </c>
+      <c r="M91" s="1">
+        <v>-17912000</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-45000000</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-13000000</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>92</v>
@@ -7596,22 +7751,22 @@
         <v>92</v>
       </c>
       <c r="F92" s="1">
-        <v>40000000</v>
+        <v>-64952000</v>
       </c>
       <c r="G92" s="1">
-        <v>40000000</v>
+        <v>-14992000</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="I92" s="1">
-        <v>189131000</v>
+        <v>-205841000</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K92" s="1">
-        <v>16667000</v>
+      <c r="K92" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>92</v>
@@ -7625,281 +7780,281 @@
       <c r="O92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P92" s="1" t="s">
-        <v>92</v>
+      <c r="P92" s="1">
+        <v>-132000000</v>
       </c>
       <c r="Q92" s="1">
-        <v>22000000</v>
+        <v>-5835000000</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="G93" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="1">
+        <v>189131000</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="1">
+        <v>16667000</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="1">
         <v>40000</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C94" s="1">
         <v>-960000</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D94" s="1">
         <v>-2360000</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E94" s="1">
         <v>-140094000</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F94" s="1">
         <v>46920000</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G94" s="1">
         <v>7290000</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H94" s="1">
         <v>14807000</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I94" s="1">
         <v>-3849000</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J94" s="1">
         <v>-26441000</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K94" s="1">
         <v>-206149000</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L94" s="1">
         <v>-223090000</v>
       </c>
-      <c r="M93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N93" s="1">
+      <c r="M94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94" s="1">
         <v>41000000</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O94" s="1">
         <v>113000000</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P94" s="1">
         <v>-1222000000</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q94" s="1">
         <v>1003000000</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="95" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B95" s="10">
         <v>-9762000</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C95" s="10">
         <v>-10590000</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D95" s="10">
         <v>-14244000</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>-180297000</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <v>-175928000</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G95" s="10">
         <v>-206930000</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H95" s="10">
         <v>-249417000</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I95" s="10">
         <v>-990444000</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J95" s="10">
         <v>-1673551000</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K95" s="10">
         <v>-1416430000</v>
       </c>
-      <c r="L94" s="10">
+      <c r="L95" s="10">
         <v>-4418967000</v>
       </c>
-      <c r="M94" s="10">
+      <c r="M95" s="10">
         <v>-2337428000</v>
       </c>
-      <c r="N94" s="10">
+      <c r="N95" s="10">
         <v>-1436000000</v>
       </c>
-      <c r="O94" s="10">
+      <c r="O95" s="10">
         <v>-3132000000</v>
       </c>
-      <c r="P94" s="10">
+      <c r="P95" s="10">
         <v>-7868000000</v>
       </c>
-      <c r="Q94" s="10">
+      <c r="Q95" s="10">
         <v>-11973000000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="1">
-        <v>-191000</v>
-      </c>
-      <c r="D95" s="1">
-        <v>-322000</v>
-      </c>
-      <c r="E95" s="1">
-        <v>-315000</v>
-      </c>
-      <c r="F95" s="1">
-        <v>-416000</v>
-      </c>
-      <c r="G95" s="1">
-        <v>-15542000</v>
-      </c>
-      <c r="H95" s="1">
-        <v>-460762000</v>
-      </c>
-      <c r="I95" s="1">
-        <v>-11179000</v>
-      </c>
-      <c r="J95" s="1">
-        <v>-203780000</v>
-      </c>
-      <c r="K95" s="1">
-        <v>-1904483000</v>
-      </c>
-      <c r="L95" s="1">
-        <v>-4263788000</v>
-      </c>
-      <c r="M95" s="1">
-        <v>-6087029000</v>
-      </c>
-      <c r="N95" s="1">
-        <v>-9871000000</v>
-      </c>
-      <c r="O95" s="1">
-        <v>-12201000000</v>
-      </c>
-      <c r="P95" s="1">
-        <v>-14615000000</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>-3866000000</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-191000</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-322000</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-315000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-416000</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-15542000</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-460762000</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-11179000</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-203780000</v>
+      </c>
+      <c r="K96" s="1">
+        <v>-1904483000</v>
+      </c>
+      <c r="L96" s="1">
+        <v>-4263788000</v>
+      </c>
+      <c r="M96" s="1">
+        <v>-6087029000</v>
+      </c>
+      <c r="N96" s="1">
+        <v>-9871000000</v>
+      </c>
+      <c r="O96" s="1">
+        <v>-12201000000</v>
+      </c>
+      <c r="P96" s="1">
+        <v>-14615000000</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>-3866000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="1">
         <v>21000</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="1">
         <v>268842000</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F97" s="1">
         <v>231468000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>221496000</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H97" s="1">
         <v>415000000</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="I97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J97" s="1">
         <v>750000000</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K97" s="1">
         <v>1701734000</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>400175000</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N96" s="1">
+      <c r="M97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N97" s="1">
         <v>848000000</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O97" s="1">
         <v>12269000000</v>
       </c>
-      <c r="P96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="P97" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B97" s="20">
-        <v>0</v>
-      </c>
-      <c r="C97" s="20">
-        <v>0</v>
-      </c>
-      <c r="D97" s="20">
-        <v>0</v>
-      </c>
-      <c r="E97" s="20">
-        <v>0</v>
-      </c>
-      <c r="F97" s="20">
-        <v>0</v>
-      </c>
-      <c r="G97" s="20">
-        <v>0</v>
-      </c>
-      <c r="H97" s="20">
-        <v>0</v>
-      </c>
-      <c r="I97" s="20">
-        <v>0</v>
-      </c>
-      <c r="J97" s="20">
-        <v>0</v>
-      </c>
-      <c r="K97" s="20">
-        <v>0</v>
-      </c>
-      <c r="L97" s="20">
-        <v>0</v>
-      </c>
-      <c r="M97" s="20">
-        <v>0</v>
-      </c>
-      <c r="N97" s="20">
-        <v>0</v>
-      </c>
-      <c r="O97" s="20">
-        <v>0</v>
-      </c>
-      <c r="P97" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B98" s="20">
         <v>0</v>
@@ -7950,488 +8105,731 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="20">
+        <v>0</v>
+      </c>
+      <c r="C99" s="20">
+        <v>0</v>
+      </c>
+      <c r="D99" s="20">
+        <v>0</v>
+      </c>
+      <c r="E99" s="20">
+        <v>0</v>
+      </c>
+      <c r="F99" s="20">
+        <v>0</v>
+      </c>
+      <c r="G99" s="20">
+        <v>0</v>
+      </c>
+      <c r="H99" s="20">
+        <v>0</v>
+      </c>
+      <c r="I99" s="20">
+        <v>0</v>
+      </c>
+      <c r="J99" s="20">
+        <v>0</v>
+      </c>
+      <c r="K99" s="20">
+        <v>0</v>
+      </c>
+      <c r="L99" s="20">
+        <v>0</v>
+      </c>
+      <c r="M99" s="20">
+        <v>0</v>
+      </c>
+      <c r="N99" s="20">
+        <v>0</v>
+      </c>
+      <c r="O99" s="20">
+        <v>0</v>
+      </c>
+      <c r="P99" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="1">
         <v>45041000</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C100" s="1">
         <v>55238000</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D100" s="1">
         <v>155741000</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E100" s="1">
         <v>69518000</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F100" s="1">
         <v>214948000</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G100" s="1">
         <v>213681000</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H100" s="1">
         <v>681184000</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I100" s="1">
         <v>2154309000</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J100" s="1">
         <v>977303000</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K100" s="1">
         <v>3946725000</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>8278477000</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M100" s="1">
         <v>6660784000</v>
       </c>
-      <c r="N99" s="1">
+      <c r="N100" s="1">
         <v>10552000000</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O100" s="1">
         <v>9905000000</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="1">
         <v>9412000000</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q100" s="1">
         <v>339000000</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="101" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B101" s="10">
         <v>45041000</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C101" s="10">
         <v>55068000</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D101" s="10">
         <v>155419000</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E101" s="10">
         <v>338045000</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F101" s="10">
         <v>446000000</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G101" s="10">
         <v>419635000</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H101" s="10">
         <v>635422000</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I101" s="10">
         <v>2143130000</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J101" s="10">
         <v>1523523000</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K101" s="10">
         <v>3743976000</v>
       </c>
-      <c r="L100" s="10">
+      <c r="L101" s="10">
         <v>4414864000</v>
       </c>
-      <c r="M100" s="10">
+      <c r="M101" s="10">
         <v>573755000</v>
       </c>
-      <c r="N100" s="10">
+      <c r="N101" s="10">
         <v>1529000000</v>
       </c>
-      <c r="O100" s="10">
+      <c r="O101" s="10">
         <v>9973000000</v>
       </c>
-      <c r="P100" s="10">
+      <c r="P101" s="10">
         <v>-5203000000</v>
       </c>
-      <c r="Q100" s="10">
+      <c r="Q101" s="10">
         <v>-3527000000</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="102" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I101" s="1">
+      <c r="B102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I102" s="1">
         <v>-35525000</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J102" s="1">
         <v>-34278000</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K102" s="1">
         <v>-7409000</v>
       </c>
-      <c r="L101" s="1">
+      <c r="L102" s="1">
         <v>39455000</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M102" s="1">
         <v>-22700000</v>
       </c>
-      <c r="N101" s="1">
+      <c r="N102" s="1">
         <v>8000000</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O102" s="1">
         <v>334000000</v>
       </c>
-      <c r="P101" s="1">
+      <c r="P102" s="1">
         <v>-183000000</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q102" s="1">
         <v>-444000000</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B103" s="10">
         <v>-18190000</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C103" s="10">
         <v>-7934000</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D103" s="10">
         <v>60350000</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E103" s="10">
         <v>29931000</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F103" s="10">
         <v>155708000</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G103" s="10">
         <v>-53376000</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H103" s="10">
         <v>643999000</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I103" s="10">
         <v>1059824000</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J103" s="10">
         <v>-708805000</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K103" s="10">
         <v>2196308000</v>
       </c>
-      <c r="L102" s="10">
+      <c r="L103" s="10">
         <v>-25302000</v>
       </c>
-      <c r="M102" s="10">
+      <c r="M103" s="10">
         <v>311429000</v>
       </c>
-      <c r="N102" s="10">
+      <c r="N103" s="10">
         <v>2506000000</v>
       </c>
-      <c r="O102" s="10">
+      <c r="O103" s="10">
         <v>13118000000</v>
       </c>
-      <c r="P102" s="10">
+      <c r="P103" s="10">
         <v>-1757000000</v>
       </c>
-      <c r="Q102" s="10">
+      <c r="Q103" s="10">
         <v>-1220000000</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="104" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B104" s="1">
         <v>35401000</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C104" s="1">
         <v>17211000</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D104" s="1">
         <v>9277000</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E104" s="1">
         <v>69627000</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F104" s="1">
         <v>99558000</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G104" s="1">
         <v>255266000</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H104" s="1">
         <v>201890000</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I104" s="1">
         <v>845889000</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J104" s="1">
         <v>1905713000</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K104" s="1">
         <v>1196908000</v>
       </c>
-      <c r="L103" s="1">
+      <c r="L104" s="1">
         <v>3393216000</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M104" s="1">
         <v>3964959000</v>
       </c>
-      <c r="N103" s="1">
+      <c r="N104" s="1">
         <v>4277000000</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O104" s="1">
         <v>6783000000</v>
       </c>
-      <c r="P103" s="1">
+      <c r="P104" s="1">
         <v>19901000000</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="Q104" s="1">
         <v>18144000000</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+    <row r="105" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B105" s="11">
         <v>17211000</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C105" s="11">
         <v>9277000</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D105" s="11">
         <v>69627000</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E105" s="11">
         <v>99558000</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F105" s="11">
         <v>255266000</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G105" s="11">
         <v>201890000</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H105" s="11">
         <v>845889000</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I105" s="11">
         <v>1905713000</v>
       </c>
-      <c r="J104" s="11">
+      <c r="J105" s="11">
         <v>1196908000</v>
       </c>
-      <c r="K104" s="11">
+      <c r="K105" s="11">
         <v>3393216000</v>
       </c>
-      <c r="L104" s="11">
+      <c r="L105" s="11">
         <v>3367914000</v>
       </c>
-      <c r="M104" s="11">
+      <c r="M105" s="11">
         <v>4276388000</v>
       </c>
-      <c r="N104" s="11">
+      <c r="N105" s="11">
         <v>6783000000</v>
       </c>
-      <c r="O104" s="11">
+      <c r="O105" s="11">
         <v>19901000000</v>
       </c>
-      <c r="P104" s="11">
+      <c r="P105" s="11">
         <v>18144000000</v>
       </c>
-      <c r="Q104" s="11">
+      <c r="Q105" s="11">
         <v>16924000000</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+    <row r="106" spans="1:25" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:Q106" si="57">(C107/B107)-1</f>
         <v>-1.9424380837982591E-2</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="57"/>
         <v>0.49429418780825896</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="57"/>
         <v>0.81233752925821667</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="57"/>
         <v>0.85846922985358876</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="57"/>
         <v>0.61823160187023629</v>
       </c>
-      <c r="H105" s="15">
-        <f>(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="57"/>
         <v>-0.98767091027470322</v>
       </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
+      <c r="I106" s="15">
+        <f t="shared" si="57"/>
         <v>163.88314606741574</v>
       </c>
-      <c r="J105" s="15">
-        <f>(J106/I106)-1</f>
+      <c r="J106" s="15">
+        <f t="shared" si="57"/>
         <v>1.1021249544889029</v>
       </c>
-      <c r="K105" s="15">
-        <f>(K106/J106)-1</f>
+      <c r="K106" s="15">
+        <f t="shared" si="57"/>
         <v>-0.27556870149290369</v>
       </c>
-      <c r="L105" s="15">
-        <f>(L106/K106)-1</f>
+      <c r="L106" s="15">
+        <f t="shared" si="57"/>
         <v>1.6478348142939332</v>
       </c>
-      <c r="M105" s="15">
-        <f>(M106/L106)-1</f>
+      <c r="M106" s="15">
+        <f t="shared" si="57"/>
         <v>-0.94647185616251828</v>
       </c>
-      <c r="N105" s="15">
-        <f>(N106/M106)-1</f>
+      <c r="N106" s="15">
+        <f t="shared" si="57"/>
         <v>-5.3659850077126388</v>
       </c>
-      <c r="O105" s="15">
-        <f>(O106/N106)-1</f>
+      <c r="O106" s="15">
+        <f t="shared" si="57"/>
         <v>1.790289256198347</v>
       </c>
-      <c r="P105" s="15">
-        <f>(P106/O106)-1</f>
+      <c r="P106" s="15">
+        <f t="shared" si="57"/>
         <v>0.28952239911144018</v>
       </c>
-      <c r="Q105" s="15">
-        <f>(Q106/P106)-1</f>
+      <c r="Q106" s="15">
+        <f t="shared" si="57"/>
         <v>1.1708297444731555</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+      <c r="U106" s="15"/>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
+      <c r="X106" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y106" s="48"/>
+    </row>
+    <row r="107" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B107" s="1">
         <v>-63271000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-62042000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-92709000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-168020000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-312260000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>-505309000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>-6230000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>-1027222000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>-2159349000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>-1564300000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>-4142008000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>-221714000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>968000000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>2701000000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>3483000000</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q107" s="1">
         <v>7561000000</v>
       </c>
+      <c r="R107" s="49">
+        <f>Q107*(1+$Y$107)</f>
+        <v>9160758758.0140381</v>
+      </c>
+      <c r="S107" s="49">
+        <f t="shared" ref="S107:V107" si="58">R107*(1+$Y$107)</f>
+        <v>11098994977.189644</v>
+      </c>
+      <c r="T107" s="49">
+        <f t="shared" si="58"/>
+        <v>13447323825.214106</v>
+      </c>
+      <c r="U107" s="49">
+        <f t="shared" si="58"/>
+        <v>16292512829.477709</v>
+      </c>
+      <c r="V107" s="49">
+        <f t="shared" si="58"/>
+        <v>19739687818.105278</v>
+      </c>
+      <c r="W107" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="X107" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y107" s="52">
+        <f>(SUM(R5:V5)/5)</f>
+        <v>0.21158031451051951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="35" x14ac:dyDescent="0.25">
+      <c r="R108" s="50"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="50"/>
+      <c r="U108" s="50"/>
+      <c r="V108" s="53">
+        <f>V107*(1+Y108)/(Y109-Y108)</f>
+        <v>211937882385.71765</v>
+      </c>
+      <c r="W108" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="X108" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y108" s="56">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R109" s="53">
+        <f t="shared" ref="R109:T109" si="59">R108+R107</f>
+        <v>9160758758.0140381</v>
+      </c>
+      <c r="S109" s="53">
+        <f t="shared" si="59"/>
+        <v>11098994977.189644</v>
+      </c>
+      <c r="T109" s="53">
+        <f t="shared" si="59"/>
+        <v>13447323825.214106</v>
+      </c>
+      <c r="U109" s="53">
+        <f>U108+U107</f>
+        <v>16292512829.477709</v>
+      </c>
+      <c r="V109" s="53">
+        <f>V108+V107</f>
+        <v>231677570203.82294</v>
+      </c>
+      <c r="W109" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="X109" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y109" s="58">
+        <f>X41</f>
+        <v>0.13139889132494117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="R110" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="S110" s="60"/>
+    </row>
+    <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R111" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="S111" s="62">
+        <f>NPV(Y109,R109,S109,T109,U109,V109)</f>
+        <v>160965670043.4726</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="R112" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="S112" s="62">
+        <f>Q41</f>
+        <v>22185000000</v>
+      </c>
+    </row>
+    <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R113" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="S113" s="62">
+        <f>X35</f>
+        <v>3099000000</v>
+      </c>
+    </row>
+    <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R114" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="S114" s="62">
+        <f>S111+S112-S113</f>
+        <v>180051670043.4726</v>
+      </c>
+    </row>
+    <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R115" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="S115" s="64">
+        <v>3160000000</v>
+      </c>
+    </row>
+    <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R116" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="S116" s="66">
+        <f>S114/S115</f>
+        <v>56.978376596035631</v>
+      </c>
+    </row>
+    <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R117" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="S117" s="67">
+        <v>187.71</v>
+      </c>
+    </row>
+    <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R118" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="S118" s="69">
+        <f>S116/S117-1</f>
+        <v>-0.69645529489086555</v>
+      </c>
+    </row>
+    <row r="119" spans="18:19" ht="20" x14ac:dyDescent="0.25">
+      <c r="R119" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="S119" s="70" t="str">
+        <f>IF(S116&gt;S117,"BUY","SELL")</f>
+        <v>SELL</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="X106:Y106"/>
+    <mergeCell ref="R110:S110"/>
+    <mergeCell ref="W20:X20"/>
     <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W40:X40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TSLA" display="ROIC.AI | TSLA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C74" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D36" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D74" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F36" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F74" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H36" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K36" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K74" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L36" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L74" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M36" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M74" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N36" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O36" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O74" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B37" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B75" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C37" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C75" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D37" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D75" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E37" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E75" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312511054847/0001193125-11-054847-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F37" r:id="rId10" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F75" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312512081990/0001193125-12-081990-index.htm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G37" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G75" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312513096241/0001193125-13-096241-index.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H37" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H75" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000119312514069681/0001193125-14-069681-index.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I37" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I75" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459015001031/0001564590-15-001031-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J37" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J75" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459016013195/0001564590-16-013195-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K37" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K75" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459017003118/0001564590-17-003118-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L37" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L75" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459018002956/0001564590-18-002956-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M37" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M75" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459019003165/0001564590-19-003165-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N37" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N75" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459020004475/0001564590-20-004475-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O37" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O75" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000156459021004599/0001564590-21-004599-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P37" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P75" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017022000796/0000950170-22-000796-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q37" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q75" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1318605/000095017023001409/0000950170-23-001409-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="R1" r:id="rId34" display="https://finbox.com/NASDAQGS:TSLA/explorer/revenue_proj" xr:uid="{3BB34DC7-FA61-5D45-B17B-00CAD693BF05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId35"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62130AF-8662-0247-8064-DF535131AF85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>